--- a/AngelOne_Option_BUY.xlsx
+++ b/AngelOne_Option_BUY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chara\OneDrive\Desktop\Algorithmic_Trading\03_Project_AngleOne\working_All\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DECE269-3CF1-48C6-97D4-607C7A3AA0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A158DC2B-5E79-4C88-8D67-F9E4CA07C4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="23" windowWidth="21751" windowHeight="6667" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="problems" sheetId="13" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="88">
   <si>
     <t>Price</t>
   </si>
@@ -293,15 +293,6 @@
 (N)</t>
   </si>
   <si>
-    <t>Open_Range_Breakout</t>
-  </si>
-  <si>
-    <t>Intraday</t>
-  </si>
-  <si>
-    <t>BUY</t>
-  </si>
-  <si>
     <t>option_buy</t>
   </si>
   <si>
@@ -314,34 +305,7 @@
     <t>option_buy4</t>
   </si>
   <si>
-    <t>BANKNIFTY14AUG2450600PE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY14AUG2450600CE</t>
-  </si>
-  <si>
-    <t>NIFTY14AUG2424400PE</t>
-  </si>
-  <si>
-    <t>NIFTY14AUG2424400CE</t>
-  </si>
-  <si>
-    <t>NIFTY14AUG2424200CE</t>
-  </si>
-  <si>
-    <t>NIFTY14AUG2424200PE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY14AUG2450100CE</t>
-  </si>
-  <si>
-    <t>BANKNIFTY14AUG2450100PE</t>
-  </si>
-  <si>
-    <t>FINNIFTY13AUG2422700CE</t>
-  </si>
-  <si>
-    <t>FINNIFTY13AUG2422700PE</t>
+    <t>Loss/profit</t>
   </si>
 </sst>
 </file>
@@ -362,7 +326,7 @@
     <numFmt numFmtId="173" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="174" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,8 +428,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,12 +477,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF7F7F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,7 +577,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -761,49 +727,6 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="8" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="8" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="8" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="174" fontId="11" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -816,9 +739,9 @@
     <xf numFmtId="14" fontId="10" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="10" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="9" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -827,7 +750,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="10" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="9" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -847,6 +770,27 @@
     </xf>
     <xf numFmtId="14" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -869,21 +813,6 @@
     <xf numFmtId="14" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -893,27 +822,7 @@
     <cellStyle name="Normal 2 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Percent 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="163">
-    <dxf>
-      <font>
-        <color rgb="FFF84960"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF84960"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF84960"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
+  <dxfs count="120">
     <dxf>
       <font>
         <color theme="5"/>
@@ -990,58 +899,6 @@
       <font>
         <color theme="5" tint="0.39994506668294322"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF84960"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF84960"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF84960"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF84960"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF84960"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1142,51 +999,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF84960"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFF84960"/>
       </font>
     </dxf>
@@ -1197,84 +1009,12 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFF84960"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF84960"/>
+        <color theme="8"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <color rgb="FFF84960"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF84960"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF84960"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
       </font>
     </dxf>
     <dxf>
@@ -1290,182 +1030,6 @@
     <dxf>
       <font>
         <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF84960"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF84960"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF84960"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF84960"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF84960"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF84960"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF84960"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF84960"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF84960"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF84960"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF84960"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF84960"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF84960"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFF84960"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5"/>
       </font>
     </dxf>
     <dxf>
@@ -1617,6 +1181,46 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF84960"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF84960"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF84960"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF84960"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF84960"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF84960"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFF84960"/>
       </font>
     </dxf>
@@ -1634,6 +1238,91 @@
       <font>
         <color theme="5" tint="0.39994506668294322"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF84960"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1684,6 +1373,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFF84960"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="5" tint="0.39994506668294322"/>
       </font>
     </dxf>
@@ -1715,6 +1409,26 @@
     <dxf>
       <font>
         <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFF84960"/>
       </font>
     </dxf>
     <dxf>
@@ -1857,15 +1571,6 @@
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="573"/>
-                <c:pt idx="0">
-                  <c:v>45518.725046296298</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45518.72583333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45518.726724537039</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1875,15 +1580,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="573"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2066,13 +1762,139 @@
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="386"/>
                 <c:pt idx="2">
-                  <c:v>45518.725057870368</c:v>
+                  <c:v>45525.41033564815</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45518.72583333333</c:v>
+                  <c:v>45525.41134259259</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45518.726724537039</c:v>
+                  <c:v>45525.412349537037</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45525.413263888891</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45525.413831018515</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45525.414768518516</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45525.415462962963</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45525.416238425925</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45525.416701388887</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45525.41741898148</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45525.417962962965</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45525.418391203704</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45525.41914351852</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45525.419722222221</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45525.573611111111</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45525.574606481481</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45525.575486111113</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45525.576226851852</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45525.577094907407</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45525.577824074076</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45525.578784722224</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45525.579664351855</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45525.580277777779</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45525.581006944441</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45525.581956018519</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45525.582546296297</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45525.583680555559</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45525.584745370368</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45525.585810185185</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45525.586631944447</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45525.587118055555</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45525.587905092594</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45525.588946759257</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45525.589791666665</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45525.590810185182</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45525.591631944444</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45525.592627314814</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45525.593252314815</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45525.594201388885</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45525.595150462963</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45525.595717592594</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45525.596597222226</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45525.59716435185</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45525.598229166666</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45525.599189814813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2090,6 +1912,132 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3250,10 +3198,10 @@
       <c r="B3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="65" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3264,10 +3212,10 @@
       <c r="B4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="81" t="s">
+      <c r="G4" s="66" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3281,10 +3229,10 @@
       <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="81" t="s">
+      <c r="F5" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="66" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3298,18 +3246,18 @@
       <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="81" t="s">
+      <c r="F6" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="81" t="s">
+      <c r="G6" s="66" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="F7" s="81" t="s">
+      <c r="F7" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="81" t="s">
+      <c r="G7" s="66" t="s">
         <v>81</v>
       </c>
     </row>
@@ -8677,28 +8625,28 @@
     <protectedRange sqref="E10:AP10" name="text_1"/>
   </protectedRanges>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="162" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="2">
+    <cfRule type="expression" dxfId="118" priority="2">
       <formula>OR(C6="SELL",C6="SHORT")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:D12">
-    <cfRule type="expression" dxfId="160" priority="12">
+    <cfRule type="expression" dxfId="117" priority="12">
       <formula>OR(C12="SELL",C12="SHORT")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:AP6">
-    <cfRule type="cellIs" dxfId="159" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="4">
+    <cfRule type="expression" dxfId="115" priority="4">
       <formula>OR(C5="SELL",C5="SHORT")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:AP21 D22:AP120">
-    <cfRule type="cellIs" dxfId="157" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8736,16 +8684,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="L1" s="86" t="s">
+      <c r="L1" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
       <c r="Y1" s="30"/>
       <c r="Z1" s="3"/>
     </row>
@@ -8756,7 +8704,7 @@
       <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="67" t="s">
         <v>82</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -8809,26 +8757,26 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="C3" s="31">
-        <v>45518.724965277775</v>
+        <v>45525.654456018521</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="83">
+      <c r="E3" s="68">
         <v>1</v>
       </c>
       <c r="F3" s="33">
-        <v>49959.25</v>
+        <v>50763.05</v>
       </c>
       <c r="G3" s="33">
-        <v>49656.5</v>
-      </c>
-      <c r="H3" s="97"/>
+        <v>50448.05</v>
+      </c>
+      <c r="H3" s="75"/>
       <c r="I3" s="33">
-        <v>50159.087</v>
+        <v>50966.102200000001</v>
       </c>
       <c r="J3" s="33">
-        <v>49557.186999999998</v>
+        <v>50347.153900000005</v>
       </c>
       <c r="K3" s="33"/>
       <c r="L3" s="34">
@@ -8858,35 +8806,31 @@
       <c r="U3" s="33"/>
       <c r="V3" s="33"/>
       <c r="W3" s="33"/>
-      <c r="Y3" s="30">
-        <v>45518.725046296298</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>0</v>
-      </c>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C4" s="31">
-        <v>45518.724965277775</v>
+        <v>45525.654467592591</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="83">
+      <c r="E4" s="68">
         <v>1</v>
       </c>
       <c r="F4" s="33">
-        <v>24196.5</v>
+        <v>24707.8</v>
       </c>
       <c r="G4" s="33">
-        <v>24100.15</v>
-      </c>
-      <c r="H4" s="97"/>
+        <v>24654.5</v>
+      </c>
+      <c r="H4" s="75"/>
       <c r="I4" s="33">
-        <v>24293.286</v>
+        <v>24806.6312</v>
       </c>
       <c r="J4" s="33">
-        <v>24051.949700000001</v>
+        <v>24605.190999999999</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="34">
@@ -8916,35 +8860,31 @@
       <c r="U4" s="33"/>
       <c r="V4" s="33"/>
       <c r="W4" s="33"/>
-      <c r="Y4" s="30">
-        <v>45518.72583333333</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>0</v>
-      </c>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C5" s="31">
-        <v>45518.724965277775</v>
+        <v>45525.654467592591</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="83">
+      <c r="E5" s="68">
         <v>1</v>
       </c>
       <c r="F5" s="33">
-        <v>22663.4</v>
+        <v>23162.9</v>
       </c>
       <c r="G5" s="33">
-        <v>22519.95</v>
+        <v>23045.599999999999</v>
       </c>
       <c r="H5" s="33"/>
       <c r="I5" s="33">
-        <v>22754.053600000003</v>
+        <v>23255.551600000003</v>
       </c>
       <c r="J5" s="33">
-        <v>22474.910100000001</v>
+        <v>22999.5088</v>
       </c>
       <c r="K5" s="33"/>
       <c r="L5" s="34">
@@ -8974,17 +8914,13 @@
       <c r="U5" s="33"/>
       <c r="V5" s="33"/>
       <c r="W5" s="33"/>
-      <c r="Y5" s="30">
-        <v>45518.726724537039</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>0</v>
-      </c>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
-      <c r="E6" s="83"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
@@ -9024,7 +8960,7 @@
     <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
-      <c r="E7" s="83"/>
+      <c r="E7" s="68"/>
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
       <c r="H7" s="33"/>
@@ -9064,7 +9000,7 @@
     <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
-      <c r="E8" s="83"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
@@ -9104,7 +9040,7 @@
     <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
-      <c r="E9" s="83"/>
+      <c r="E9" s="68"/>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
@@ -9144,7 +9080,7 @@
     <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
-      <c r="E10" s="83"/>
+      <c r="E10" s="68"/>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
@@ -9184,7 +9120,7 @@
     <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
-      <c r="E11" s="83"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
@@ -9224,7 +9160,7 @@
     <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
-      <c r="E12" s="83"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
@@ -9264,7 +9200,7 @@
     <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
-      <c r="E13" s="83"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
@@ -9304,7 +9240,7 @@
     <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
-      <c r="E14" s="83"/>
+      <c r="E14" s="68"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
@@ -9344,7 +9280,7 @@
     <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
-      <c r="E15" s="83"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
       <c r="H15" s="33"/>
@@ -9384,7 +9320,7 @@
     <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
-      <c r="E16" s="83"/>
+      <c r="E16" s="68"/>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
@@ -9424,7 +9360,7 @@
     <row r="17" spans="3:26" x14ac:dyDescent="0.45">
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
-      <c r="E17" s="83"/>
+      <c r="E17" s="68"/>
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
@@ -9464,7 +9400,7 @@
     <row r="18" spans="3:26" x14ac:dyDescent="0.45">
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
-      <c r="E18" s="83"/>
+      <c r="E18" s="68"/>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
@@ -9504,7 +9440,7 @@
     <row r="19" spans="3:26" x14ac:dyDescent="0.45">
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
-      <c r="E19" s="83"/>
+      <c r="E19" s="68"/>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
@@ -9544,7 +9480,7 @@
     <row r="20" spans="3:26" x14ac:dyDescent="0.45">
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
-      <c r="E20" s="83"/>
+      <c r="E20" s="68"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
@@ -9584,7 +9520,7 @@
     <row r="21" spans="3:26" x14ac:dyDescent="0.45">
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
-      <c r="E21" s="83"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
@@ -9621,7 +9557,7 @@
     <row r="22" spans="3:26" x14ac:dyDescent="0.45">
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
-      <c r="E22" s="83"/>
+      <c r="E22" s="68"/>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
@@ -9661,7 +9597,7 @@
     <row r="23" spans="3:26" x14ac:dyDescent="0.45">
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
-      <c r="E23" s="83"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
@@ -9701,7 +9637,7 @@
     <row r="24" spans="3:26" x14ac:dyDescent="0.45">
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
-      <c r="E24" s="83"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
@@ -9741,7 +9677,7 @@
     <row r="25" spans="3:26" x14ac:dyDescent="0.45">
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
-      <c r="E25" s="83"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
@@ -9781,7 +9717,7 @@
     <row r="26" spans="3:26" x14ac:dyDescent="0.45">
       <c r="C26" s="32"/>
       <c r="D26" s="32"/>
-      <c r="E26" s="83"/>
+      <c r="E26" s="68"/>
       <c r="F26" s="33"/>
       <c r="G26" s="33"/>
       <c r="H26" s="33"/>
@@ -13593,7 +13529,7 @@
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="L1:M2">
-    <cfRule type="cellIs" dxfId="156" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="30" operator="equal">
       <formula>"No Analysis"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13612,11 +13548,11 @@
   <dimension ref="A1:BO730"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="7" ySplit="16" topLeftCell="U17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="16" topLeftCell="AL17" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
       <selection pane="topRight" activeCell="D11" sqref="D11"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="BB17" sqref="BB17"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13680,12 +13616,12 @@
       <c r="G2" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="59" t="s">
         <v>59</v>
       </c>
       <c r="I2" s="53"/>
-      <c r="J2" s="77">
-        <v>0.72497200231481485</v>
+      <c r="J2" s="62">
+        <v>0.65446623842592599</v>
       </c>
       <c r="N2" t="s">
         <v>68</v>
@@ -13693,18 +13629,18 @@
       <c r="O2" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="76"/>
+      <c r="P2" s="61"/>
     </row>
     <row r="3" spans="1:67" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G3" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="59" t="s">
         <v>59</v>
       </c>
       <c r="I3" s="54"/>
-      <c r="J3" s="78">
-        <v>15.44</v>
+      <c r="J3" s="63">
+        <v>13.33</v>
       </c>
       <c r="N3" t="s">
         <v>69</v>
@@ -13712,14 +13648,14 @@
       <c r="O3" t="s">
         <v>70</v>
       </c>
-      <c r="P3" s="76"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:67" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J4" s="78"/>
+      <c r="J4" s="63"/>
       <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="59" t="s">
         <v>72</v>
       </c>
       <c r="P4" s="54">
@@ -13727,11 +13663,11 @@
       </c>
     </row>
     <row r="5" spans="1:67" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J5" s="78"/>
+      <c r="J5" s="63"/>
       <c r="N5" t="s">
         <v>67</v>
       </c>
-      <c r="O5" s="74" t="s">
+      <c r="O5" s="59" t="s">
         <v>72</v>
       </c>
       <c r="P5" s="54">
@@ -13739,22 +13675,22 @@
       </c>
     </row>
     <row r="6" spans="1:67" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J6" s="78"/>
-      <c r="P6" s="75"/>
+      <c r="J6" s="63"/>
+      <c r="P6" s="60"/>
     </row>
     <row r="7" spans="1:67" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J7" s="78"/>
-      <c r="P7" s="75"/>
+      <c r="J7" s="63"/>
+      <c r="P7" s="60"/>
     </row>
     <row r="8" spans="1:67" ht="11.35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="J8" s="78"/>
+      <c r="J8" s="63"/>
       <c r="N8" t="s">
         <v>71</v>
       </c>
-      <c r="O8" s="74" t="s">
+      <c r="O8" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="P8" s="79">
+      <c r="P8" s="64">
         <v>10</v>
       </c>
     </row>
@@ -13873,78 +13809,78 @@
       <c r="BL12" s="12"/>
     </row>
     <row r="13" spans="1:67" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="BN13" s="95">
+      <c r="BN13" s="73">
         <f>INDEX(BN16:BN599,MATCH(MIN(BO16:BO599),BO16:BO599,0),1)</f>
-        <v>45518.725057870368</v>
-      </c>
-      <c r="BO13" s="96" t="str">
+        <v>45525.41033564815</v>
+      </c>
+      <c r="BO13" s="74" t="str">
         <f>"Min = " &amp; ROUND(MIN(BO17:BO599),2)</f>
         <v>Min = 0</v>
       </c>
     </row>
     <row r="14" spans="1:67" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="G14" s="88" t="s">
+      <c r="G14" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="88"/>
-      <c r="T14" s="88"/>
-      <c r="U14" s="86" t="s">
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="V14" s="86"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="86"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="89" t="s">
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="78"/>
+      <c r="AA14" s="78"/>
+      <c r="AB14" s="78"/>
+      <c r="AC14" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="AD14" s="89"/>
-      <c r="AE14" s="89"/>
-      <c r="AF14" s="89"/>
-      <c r="AG14" s="89"/>
-      <c r="AH14" s="89"/>
-      <c r="AI14" s="89"/>
-      <c r="AJ14" s="89"/>
-      <c r="AK14" s="89"/>
-      <c r="AL14" s="88" t="s">
+      <c r="AD14" s="81"/>
+      <c r="AE14" s="81"/>
+      <c r="AF14" s="81"/>
+      <c r="AG14" s="81"/>
+      <c r="AH14" s="81"/>
+      <c r="AI14" s="81"/>
+      <c r="AJ14" s="81"/>
+      <c r="AK14" s="81"/>
+      <c r="AL14" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="AM14" s="88"/>
-      <c r="AN14" s="88"/>
-      <c r="AO14" s="88"/>
-      <c r="AP14" s="88"/>
-      <c r="AQ14" s="88"/>
-      <c r="AR14" s="88"/>
-      <c r="AS14" s="88"/>
-      <c r="AU14" s="87" t="s">
+      <c r="AM14" s="80"/>
+      <c r="AN14" s="80"/>
+      <c r="AO14" s="80"/>
+      <c r="AP14" s="80"/>
+      <c r="AQ14" s="80"/>
+      <c r="AR14" s="80"/>
+      <c r="AS14" s="80"/>
+      <c r="AU14" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="AV14" s="87"/>
-      <c r="AW14" s="87"/>
-      <c r="AX14" s="87"/>
-      <c r="AY14" s="87"/>
-      <c r="AZ14" s="87"/>
-      <c r="BA14" s="87"/>
-      <c r="BB14" s="87"/>
-      <c r="BN14" s="93">
+      <c r="AV14" s="79"/>
+      <c r="AW14" s="79"/>
+      <c r="AX14" s="79"/>
+      <c r="AY14" s="79"/>
+      <c r="AZ14" s="79"/>
+      <c r="BA14" s="79"/>
+      <c r="BB14" s="79"/>
+      <c r="BN14" s="71">
         <f>INDEX(BN17:BN600,MATCH(MAX(BO17:BO600),BO17:BO600,0),1)</f>
-        <v>45518.725057870368</v>
-      </c>
-      <c r="BO14" s="94" t="str">
+        <v>45525.41033564815</v>
+      </c>
+      <c r="BO14" s="72" t="str">
         <f>"Max = " &amp; ROUND(MAX(BO18:BO600),2)</f>
         <v>Max = 0</v>
       </c>
@@ -14231,7 +14167,7 @@
       <c r="AP17" s="45"/>
       <c r="AQ17" s="46"/>
       <c r="AR17" s="47">
-        <f t="shared" ref="AR17:AR22" si="6">AQ17*AP17*H17</f>
+        <f t="shared" ref="AR17" si="6">AQ17*AP17*H17</f>
         <v>0</v>
       </c>
       <c r="AS17" s="47"/>
@@ -14240,20 +14176,20 @@
       <c r="AV17" s="44"/>
       <c r="AW17" s="48"/>
       <c r="AX17" s="46" t="str">
-        <f t="shared" ref="AX17:AX22" si="7">IF(AQ17&lt;&gt;"",AQ17, "")</f>
+        <f t="shared" ref="AX17" si="7">IF(AQ17&lt;&gt;"",AQ17, "")</f>
         <v/>
       </c>
       <c r="AY17" s="47"/>
       <c r="AZ17" s="47" t="str">
-        <f t="shared" ref="AZ17:AZ22" si="8">IF(AY17&lt;&gt;"",AY17*AX17*H17,"")</f>
+        <f>IF(AY17&lt;&gt;"",AY17*AX17*H17,"")</f>
         <v/>
       </c>
       <c r="BA17" s="49" t="str">
-        <f t="shared" ref="BA17:BA22" si="9">IF(AO17&lt;&gt;"",IF(AO17="BUY",(AZ17-AR17),-(AZ17-AR17)),"")</f>
+        <f t="shared" ref="BA17" si="8">IF(AO17&lt;&gt;"",IF(AO17="BUY",(AZ17-AR17),-(AZ17-AR17)),"")</f>
         <v/>
       </c>
       <c r="BB17" s="50" t="str">
-        <f t="shared" ref="BB17:BB22" si="10">IF(BA17&lt;&gt;"",BA17/(AR17),"")</f>
+        <f t="shared" ref="BB17" si="9">IF(BA17&lt;&gt;"",BA17/(AR17),"")</f>
         <v/>
       </c>
       <c r="BC17" s="9"/>
@@ -14320,7 +14256,7 @@
       <c r="AP18" s="45"/>
       <c r="AQ18" s="46"/>
       <c r="AR18" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AR18:AR21" si="10">AQ18*AP18*H18</f>
         <v>0</v>
       </c>
       <c r="AS18" s="47"/>
@@ -14329,20 +14265,20 @@
       <c r="AV18" s="44"/>
       <c r="AW18" s="48"/>
       <c r="AX18" s="46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AX18:AX21" si="11">IF(AQ18&lt;&gt;"",AQ18, "")</f>
         <v/>
       </c>
       <c r="AY18" s="47"/>
       <c r="AZ18" s="47" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="AZ18:AZ21" si="12">IF(AY18&lt;&gt;"",AY18*AX18*H18,"")</f>
         <v/>
       </c>
       <c r="BA18" s="49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="BA18:BA21" si="13">IF(AO18&lt;&gt;"",IF(AO18="BUY",(AZ18-AR18),-(AZ18-AR18)),"")</f>
         <v/>
       </c>
       <c r="BB18" s="50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="BB18:BB21" si="14">IF(BA18&lt;&gt;"",BA18/(AR18),"")</f>
         <v/>
       </c>
       <c r="BC18" s="9"/>
@@ -14356,7 +14292,7 @@
       <c r="BK18" s="12"/>
       <c r="BL18" s="12"/>
       <c r="BN18" s="30">
-        <v>45518.725057870368</v>
+        <v>45525.41033564815</v>
       </c>
       <c r="BO18" s="3">
         <v>0</v>
@@ -14413,7 +14349,7 @@
       <c r="AP19" s="45"/>
       <c r="AQ19" s="46"/>
       <c r="AR19" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AS19" s="47"/>
@@ -14422,20 +14358,20 @@
       <c r="AV19" s="44"/>
       <c r="AW19" s="48"/>
       <c r="AX19" s="46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AY19" s="47"/>
       <c r="AZ19" s="47" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BA19" s="49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BB19" s="50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BC19" s="9"/>
@@ -14449,7 +14385,7 @@
       <c r="BK19" s="12"/>
       <c r="BL19" s="12"/>
       <c r="BN19" s="30">
-        <v>45518.72583333333</v>
+        <v>45525.41134259259</v>
       </c>
       <c r="BO19" s="3">
         <v>0</v>
@@ -14506,7 +14442,7 @@
       <c r="AP20" s="45"/>
       <c r="AQ20" s="46"/>
       <c r="AR20" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AS20" s="47"/>
@@ -14515,20 +14451,20 @@
       <c r="AV20" s="44"/>
       <c r="AW20" s="48"/>
       <c r="AX20" s="46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AY20" s="47"/>
       <c r="AZ20" s="47" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BA20" s="49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BB20" s="50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BC20" s="9"/>
@@ -14542,7 +14478,7 @@
       <c r="BK20" s="12"/>
       <c r="BL20" s="12"/>
       <c r="BN20" s="30">
-        <v>45518.726724537039</v>
+        <v>45525.412349537037</v>
       </c>
       <c r="BO20" s="3">
         <v>0</v>
@@ -14599,7 +14535,7 @@
       <c r="AP21" s="45"/>
       <c r="AQ21" s="46"/>
       <c r="AR21" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AS21" s="47"/>
@@ -14608,20 +14544,20 @@
       <c r="AV21" s="44"/>
       <c r="AW21" s="48"/>
       <c r="AX21" s="46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AY21" s="47"/>
       <c r="AZ21" s="47" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BA21" s="49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BB21" s="50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BC21" s="9"/>
@@ -14634,8 +14570,12 @@
       <c r="BJ21" s="12"/>
       <c r="BK21" s="12"/>
       <c r="BL21" s="12"/>
-      <c r="BN21" s="30"/>
-      <c r="BO21" s="3"/>
+      <c r="BN21" s="30">
+        <v>45525.413263888891</v>
+      </c>
+      <c r="BO21" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A22" s="35"/>
@@ -14688,7 +14628,7 @@
       <c r="AP22" s="45"/>
       <c r="AQ22" s="46"/>
       <c r="AR22" s="47">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AR22" si="15">AQ22*AP22*H22</f>
         <v>0</v>
       </c>
       <c r="AS22" s="47"/>
@@ -14697,20 +14637,20 @@
       <c r="AV22" s="44"/>
       <c r="AW22" s="48"/>
       <c r="AX22" s="46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AX22" si="16">IF(AQ22&lt;&gt;"",AQ22, "")</f>
         <v/>
       </c>
       <c r="AY22" s="47"/>
       <c r="AZ22" s="47" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="AZ22" si="17">IF(AY22&lt;&gt;"",AY22*AX22*H22,"")</f>
         <v/>
       </c>
       <c r="BA22" s="49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="BA22" si="18">IF(AO22&lt;&gt;"",IF(AO22="BUY",(AZ22-AR22),-(AZ22-AR22)),"")</f>
         <v/>
       </c>
       <c r="BB22" s="50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="BB22" si="19">IF(BA22&lt;&gt;"",BA22/(AR22),"")</f>
         <v/>
       </c>
       <c r="BC22" s="9"/>
@@ -14723,8 +14663,12 @@
       <c r="BJ22" s="12"/>
       <c r="BK22" s="12"/>
       <c r="BL22" s="12"/>
-      <c r="BN22" s="30"/>
-      <c r="BO22" s="3"/>
+      <c r="BN22" s="30">
+        <v>45525.413831018515</v>
+      </c>
+      <c r="BO22" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A23" s="35"/>
@@ -14791,7 +14735,7 @@
       </c>
       <c r="AY23" s="47"/>
       <c r="AZ23" s="47" t="str">
-        <f t="shared" ref="AZ17:AZ23" si="11">IF(AY23&lt;&gt;"",AY23*AX23*H23,"")</f>
+        <f t="shared" ref="AZ23" si="20">IF(AY23&lt;&gt;"",AY23*AX23*H23,"")</f>
         <v/>
       </c>
       <c r="BA23" s="49" t="str">
@@ -14812,8 +14756,12 @@
       <c r="BJ23" s="12"/>
       <c r="BK23" s="12"/>
       <c r="BL23" s="12"/>
-      <c r="BN23" s="30"/>
-      <c r="BO23" s="3"/>
+      <c r="BN23" s="30">
+        <v>45525.414768518516</v>
+      </c>
+      <c r="BO23" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A24" s="35"/>
@@ -14866,7 +14814,7 @@
       <c r="AP24" s="45"/>
       <c r="AQ24" s="46"/>
       <c r="AR24" s="47">
-        <f t="shared" ref="AR22:AR25" si="12">AQ24*AP24*H24</f>
+        <f t="shared" ref="AR24:AR25" si="21">AQ24*AP24*H24</f>
         <v>0</v>
       </c>
       <c r="AS24" s="47"/>
@@ -14875,20 +14823,20 @@
       <c r="AV24" s="44"/>
       <c r="AW24" s="48"/>
       <c r="AX24" s="46" t="str">
-        <f t="shared" ref="AX22:AX25" si="13">IF(AQ24&lt;&gt;"",AQ24, "")</f>
+        <f t="shared" ref="AX24:AX25" si="22">IF(AQ24&lt;&gt;"",AQ24, "")</f>
         <v/>
       </c>
       <c r="AY24" s="47"/>
       <c r="AZ24" s="47" t="str">
-        <f t="shared" ref="AZ18:AZ63" si="14">IF(AY24&lt;&gt;"",AY24*AX24*H24,"")</f>
+        <f t="shared" ref="AZ24:AZ63" si="23">IF(AY24&lt;&gt;"",AY24*AX24*H24,"")</f>
         <v/>
       </c>
       <c r="BA24" s="49" t="str">
-        <f t="shared" ref="BA22:BA25" si="15">IF(AO24&lt;&gt;"",IF(AO24="BUY",(AZ24-AR24),-(AZ24-AR24)),"")</f>
+        <f t="shared" ref="BA24:BA25" si="24">IF(AO24&lt;&gt;"",IF(AO24="BUY",(AZ24-AR24),-(AZ24-AR24)),"")</f>
         <v/>
       </c>
       <c r="BB24" s="50" t="str">
-        <f t="shared" ref="BB22:BB25" si="16">IF(BA24&lt;&gt;"",BA24/(AR24),"")</f>
+        <f t="shared" ref="BB24:BB25" si="25">IF(BA24&lt;&gt;"",BA24/(AR24),"")</f>
         <v/>
       </c>
       <c r="BC24" s="9"/>
@@ -14901,8 +14849,12 @@
       <c r="BJ24" s="12"/>
       <c r="BK24" s="12"/>
       <c r="BL24" s="12"/>
-      <c r="BN24" s="30"/>
-      <c r="BO24" s="3"/>
+      <c r="BN24" s="30">
+        <v>45525.415462962963</v>
+      </c>
+      <c r="BO24" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A25" s="35"/>
@@ -14955,7 +14907,7 @@
       <c r="AP25" s="45"/>
       <c r="AQ25" s="46"/>
       <c r="AR25" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AS25" s="47"/>
@@ -14964,20 +14916,20 @@
       <c r="AV25" s="44"/>
       <c r="AW25" s="48"/>
       <c r="AX25" s="46" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AY25" s="47"/>
       <c r="AZ25" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA25" s="49" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BB25" s="50" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BC25" s="9"/>
@@ -14990,8 +14942,12 @@
       <c r="BJ25" s="12"/>
       <c r="BK25" s="12"/>
       <c r="BL25" s="12"/>
-      <c r="BN25" s="30"/>
-      <c r="BO25" s="3"/>
+      <c r="BN25" s="30">
+        <v>45525.416238425925</v>
+      </c>
+      <c r="BO25" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A26" s="35">
@@ -15046,7 +15002,7 @@
       <c r="AP26" s="45"/>
       <c r="AQ26" s="46"/>
       <c r="AR26" s="47">
-        <f t="shared" ref="AR26:AR28" si="17">AQ26*AP26*H26</f>
+        <f t="shared" ref="AR26:AR28" si="26">AQ26*AP26*H26</f>
         <v>0</v>
       </c>
       <c r="AS26" s="47"/>
@@ -15055,20 +15011,20 @@
       <c r="AV26" s="44"/>
       <c r="AW26" s="48"/>
       <c r="AX26" s="46" t="str">
-        <f t="shared" ref="AX26:AX28" si="18">IF(AQ26&lt;&gt;"",AQ26, "")</f>
+        <f t="shared" ref="AX26:AX28" si="27">IF(AQ26&lt;&gt;"",AQ26, "")</f>
         <v/>
       </c>
       <c r="AY26" s="47"/>
       <c r="AZ26" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA26" s="49" t="str">
-        <f t="shared" ref="BA26:BA28" si="19">IF(AO26&lt;&gt;"",IF(AO26="BUY",(AZ26-AR26),-(AZ26-AR26)),"")</f>
+        <f t="shared" ref="BA26:BA28" si="28">IF(AO26&lt;&gt;"",IF(AO26="BUY",(AZ26-AR26),-(AZ26-AR26)),"")</f>
         <v/>
       </c>
       <c r="BB26" s="50" t="str">
-        <f t="shared" ref="BB26:BB28" si="20">IF(BA26&lt;&gt;"",BA26/(AR26),"")</f>
+        <f t="shared" ref="BB26:BB28" si="29">IF(BA26&lt;&gt;"",BA26/(AR26),"")</f>
         <v/>
       </c>
       <c r="BC26" s="9"/>
@@ -15081,8 +15037,12 @@
       <c r="BJ26" s="12"/>
       <c r="BK26" s="12"/>
       <c r="BL26" s="12"/>
-      <c r="BN26" s="30"/>
-      <c r="BO26" s="3"/>
+      <c r="BN26" s="30">
+        <v>45525.416701388887</v>
+      </c>
+      <c r="BO26" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A27" s="35">
@@ -15137,7 +15097,7 @@
       <c r="AP27" s="45"/>
       <c r="AQ27" s="46"/>
       <c r="AR27" s="47">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AS27" s="47"/>
@@ -15146,20 +15106,20 @@
       <c r="AV27" s="44"/>
       <c r="AW27" s="48"/>
       <c r="AX27" s="46" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AY27" s="47"/>
       <c r="AZ27" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA27" s="49" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="BB27" s="50" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="BC27" s="9"/>
@@ -15172,8 +15132,12 @@
       <c r="BJ27" s="12"/>
       <c r="BK27" s="12"/>
       <c r="BL27" s="12"/>
-      <c r="BN27" s="30"/>
-      <c r="BO27" s="3"/>
+      <c r="BN27" s="30">
+        <v>45525.41741898148</v>
+      </c>
+      <c r="BO27" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A28" s="35">
@@ -15228,7 +15192,7 @@
       <c r="AP28" s="45"/>
       <c r="AQ28" s="46"/>
       <c r="AR28" s="47">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AS28" s="47"/>
@@ -15237,20 +15201,20 @@
       <c r="AV28" s="44"/>
       <c r="AW28" s="48"/>
       <c r="AX28" s="46" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AY28" s="47"/>
       <c r="AZ28" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA28" s="49" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="BB28" s="50" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="BC28" s="9"/>
@@ -15263,8 +15227,12 @@
       <c r="BJ28" s="12"/>
       <c r="BK28" s="12"/>
       <c r="BL28" s="12"/>
-      <c r="BN28" s="30"/>
-      <c r="BO28" s="3"/>
+      <c r="BN28" s="30">
+        <v>45525.417962962965</v>
+      </c>
+      <c r="BO28" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A29" s="35">
@@ -15319,7 +15287,7 @@
       <c r="AP29" s="45"/>
       <c r="AQ29" s="46"/>
       <c r="AR29" s="47">
-        <f t="shared" ref="AR29:AR63" si="21">AQ29*AP29*H29</f>
+        <f t="shared" ref="AR29:AR63" si="30">AQ29*AP29*H29</f>
         <v>0</v>
       </c>
       <c r="AS29" s="47"/>
@@ -15328,20 +15296,20 @@
       <c r="AV29" s="44"/>
       <c r="AW29" s="48"/>
       <c r="AX29" s="46" t="str">
-        <f t="shared" ref="AX29:AX63" si="22">IF(AQ29&lt;&gt;"",AQ29, "")</f>
+        <f t="shared" ref="AX29:AX63" si="31">IF(AQ29&lt;&gt;"",AQ29, "")</f>
         <v/>
       </c>
       <c r="AY29" s="47"/>
       <c r="AZ29" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA29" s="49" t="str">
-        <f t="shared" ref="BA29:BA63" si="23">IF(AO29&lt;&gt;"",IF(AO29="BUY",(AZ29-AR29),-(AZ29-AR29)),"")</f>
+        <f t="shared" ref="BA29:BA63" si="32">IF(AO29&lt;&gt;"",IF(AO29="BUY",(AZ29-AR29),-(AZ29-AR29)),"")</f>
         <v/>
       </c>
       <c r="BB29" s="50" t="str">
-        <f t="shared" ref="BB29:BB63" si="24">IF(BA29&lt;&gt;"",BA29/(AR29),"")</f>
+        <f t="shared" ref="BB29:BB63" si="33">IF(BA29&lt;&gt;"",BA29/(AR29),"")</f>
         <v/>
       </c>
       <c r="BC29" s="9"/>
@@ -15354,8 +15322,12 @@
       <c r="BJ29" s="12"/>
       <c r="BK29" s="12"/>
       <c r="BL29" s="12"/>
-      <c r="BN29" s="30"/>
-      <c r="BO29" s="3"/>
+      <c r="BN29" s="30">
+        <v>45525.418391203704</v>
+      </c>
+      <c r="BO29" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A30" s="35">
@@ -15410,7 +15382,7 @@
       <c r="AP30" s="45"/>
       <c r="AQ30" s="46"/>
       <c r="AR30" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS30" s="47"/>
@@ -15419,20 +15391,20 @@
       <c r="AV30" s="44"/>
       <c r="AW30" s="48"/>
       <c r="AX30" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY30" s="47"/>
       <c r="AZ30" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA30" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB30" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC30" s="9"/>
@@ -15445,8 +15417,12 @@
       <c r="BJ30" s="12"/>
       <c r="BK30" s="12"/>
       <c r="BL30" s="12"/>
-      <c r="BN30" s="30"/>
-      <c r="BO30" s="3"/>
+      <c r="BN30" s="30">
+        <v>45525.41914351852</v>
+      </c>
+      <c r="BO30" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A31" s="35">
@@ -15501,7 +15477,7 @@
       <c r="AP31" s="45"/>
       <c r="AQ31" s="46"/>
       <c r="AR31" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS31" s="47"/>
@@ -15510,20 +15486,20 @@
       <c r="AV31" s="44"/>
       <c r="AW31" s="48"/>
       <c r="AX31" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY31" s="47"/>
       <c r="AZ31" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA31" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB31" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC31" s="9"/>
@@ -15536,8 +15512,12 @@
       <c r="BJ31" s="12"/>
       <c r="BK31" s="12"/>
       <c r="BL31" s="12"/>
-      <c r="BN31" s="30"/>
-      <c r="BO31" s="3"/>
+      <c r="BN31" s="30">
+        <v>45525.419722222221</v>
+      </c>
+      <c r="BO31" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A32" s="35">
@@ -15592,7 +15572,7 @@
       <c r="AP32" s="45"/>
       <c r="AQ32" s="46"/>
       <c r="AR32" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS32" s="47"/>
@@ -15601,20 +15581,20 @@
       <c r="AV32" s="44"/>
       <c r="AW32" s="48"/>
       <c r="AX32" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY32" s="47"/>
       <c r="AZ32" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA32" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB32" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC32" s="9"/>
@@ -15627,8 +15607,12 @@
       <c r="BJ32" s="12"/>
       <c r="BK32" s="12"/>
       <c r="BL32" s="12"/>
-      <c r="BN32" s="30"/>
-      <c r="BO32" s="3"/>
+      <c r="BN32" s="30">
+        <v>45525.573611111111</v>
+      </c>
+      <c r="BO32" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A33" s="35">
@@ -15683,7 +15667,7 @@
       <c r="AP33" s="45"/>
       <c r="AQ33" s="46"/>
       <c r="AR33" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS33" s="47"/>
@@ -15692,20 +15676,20 @@
       <c r="AV33" s="44"/>
       <c r="AW33" s="48"/>
       <c r="AX33" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY33" s="47"/>
       <c r="AZ33" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA33" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB33" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC33" s="9"/>
@@ -15718,8 +15702,12 @@
       <c r="BJ33" s="12"/>
       <c r="BK33" s="12"/>
       <c r="BL33" s="12"/>
-      <c r="BN33" s="30"/>
-      <c r="BO33" s="3"/>
+      <c r="BN33" s="30">
+        <v>45525.574606481481</v>
+      </c>
+      <c r="BO33" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A34" s="35">
@@ -15774,7 +15762,7 @@
       <c r="AP34" s="45"/>
       <c r="AQ34" s="46"/>
       <c r="AR34" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS34" s="47"/>
@@ -15783,20 +15771,20 @@
       <c r="AV34" s="44"/>
       <c r="AW34" s="48"/>
       <c r="AX34" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY34" s="47"/>
       <c r="AZ34" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA34" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB34" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC34" s="9"/>
@@ -15809,8 +15797,12 @@
       <c r="BJ34" s="12"/>
       <c r="BK34" s="12"/>
       <c r="BL34" s="12"/>
-      <c r="BN34" s="30"/>
-      <c r="BO34" s="3"/>
+      <c r="BN34" s="30">
+        <v>45525.575486111113</v>
+      </c>
+      <c r="BO34" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A35" s="35">
@@ -15865,7 +15857,7 @@
       <c r="AP35" s="45"/>
       <c r="AQ35" s="46"/>
       <c r="AR35" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS35" s="47"/>
@@ -15874,20 +15866,20 @@
       <c r="AV35" s="44"/>
       <c r="AW35" s="48"/>
       <c r="AX35" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY35" s="47"/>
       <c r="AZ35" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA35" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB35" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC35" s="9"/>
@@ -15900,8 +15892,12 @@
       <c r="BJ35" s="12"/>
       <c r="BK35" s="12"/>
       <c r="BL35" s="12"/>
-      <c r="BN35" s="30"/>
-      <c r="BO35" s="3"/>
+      <c r="BN35" s="30">
+        <v>45525.576226851852</v>
+      </c>
+      <c r="BO35" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A36" s="35">
@@ -15956,7 +15952,7 @@
       <c r="AP36" s="45"/>
       <c r="AQ36" s="46"/>
       <c r="AR36" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS36" s="47"/>
@@ -15965,20 +15961,20 @@
       <c r="AV36" s="44"/>
       <c r="AW36" s="48"/>
       <c r="AX36" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY36" s="47"/>
       <c r="AZ36" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA36" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB36" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC36" s="9"/>
@@ -15991,8 +15987,12 @@
       <c r="BJ36" s="12"/>
       <c r="BK36" s="12"/>
       <c r="BL36" s="12"/>
-      <c r="BN36" s="30"/>
-      <c r="BO36" s="3"/>
+      <c r="BN36" s="30">
+        <v>45525.577094907407</v>
+      </c>
+      <c r="BO36" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A37" s="35"/>
@@ -16045,7 +16045,7 @@
       <c r="AP37" s="45"/>
       <c r="AQ37" s="46"/>
       <c r="AR37" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS37" s="47"/>
@@ -16054,20 +16054,20 @@
       <c r="AV37" s="44"/>
       <c r="AW37" s="48"/>
       <c r="AX37" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY37" s="47"/>
       <c r="AZ37" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA37" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB37" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC37" s="9"/>
@@ -16080,8 +16080,12 @@
       <c r="BJ37" s="12"/>
       <c r="BK37" s="12"/>
       <c r="BL37" s="12"/>
-      <c r="BN37" s="30"/>
-      <c r="BO37" s="3"/>
+      <c r="BN37" s="30">
+        <v>45525.577824074076</v>
+      </c>
+      <c r="BO37" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A38" s="35"/>
@@ -16134,7 +16138,7 @@
       <c r="AP38" s="45"/>
       <c r="AQ38" s="46"/>
       <c r="AR38" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS38" s="47"/>
@@ -16143,20 +16147,20 @@
       <c r="AV38" s="44"/>
       <c r="AW38" s="48"/>
       <c r="AX38" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY38" s="47"/>
       <c r="AZ38" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA38" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB38" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC38" s="9"/>
@@ -16169,8 +16173,12 @@
       <c r="BJ38" s="12"/>
       <c r="BK38" s="12"/>
       <c r="BL38" s="12"/>
-      <c r="BN38" s="30"/>
-      <c r="BO38" s="3"/>
+      <c r="BN38" s="30">
+        <v>45525.578784722224</v>
+      </c>
+      <c r="BO38" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A39" s="35"/>
@@ -16223,7 +16231,7 @@
       <c r="AP39" s="45"/>
       <c r="AQ39" s="46"/>
       <c r="AR39" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS39" s="47"/>
@@ -16232,20 +16240,20 @@
       <c r="AV39" s="44"/>
       <c r="AW39" s="48"/>
       <c r="AX39" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY39" s="47"/>
       <c r="AZ39" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA39" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB39" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC39" s="9"/>
@@ -16258,8 +16266,12 @@
       <c r="BJ39" s="12"/>
       <c r="BK39" s="12"/>
       <c r="BL39" s="12"/>
-      <c r="BN39" s="30"/>
-      <c r="BO39" s="3"/>
+      <c r="BN39" s="30">
+        <v>45525.579664351855</v>
+      </c>
+      <c r="BO39" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A40" s="35"/>
@@ -16312,7 +16324,7 @@
       <c r="AP40" s="45"/>
       <c r="AQ40" s="46"/>
       <c r="AR40" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS40" s="47"/>
@@ -16321,20 +16333,20 @@
       <c r="AV40" s="44"/>
       <c r="AW40" s="48"/>
       <c r="AX40" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY40" s="47"/>
       <c r="AZ40" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA40" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB40" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC40" s="9"/>
@@ -16347,8 +16359,12 @@
       <c r="BJ40" s="12"/>
       <c r="BK40" s="12"/>
       <c r="BL40" s="12"/>
-      <c r="BN40" s="30"/>
-      <c r="BO40" s="3"/>
+      <c r="BN40" s="30">
+        <v>45525.580277777779</v>
+      </c>
+      <c r="BO40" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A41" s="35"/>
@@ -16401,7 +16417,7 @@
       <c r="AP41" s="45"/>
       <c r="AQ41" s="46"/>
       <c r="AR41" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS41" s="47"/>
@@ -16410,20 +16426,20 @@
       <c r="AV41" s="44"/>
       <c r="AW41" s="48"/>
       <c r="AX41" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY41" s="47"/>
       <c r="AZ41" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA41" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB41" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC41" s="9"/>
@@ -16436,8 +16452,12 @@
       <c r="BJ41" s="12"/>
       <c r="BK41" s="12"/>
       <c r="BL41" s="12"/>
-      <c r="BN41" s="30"/>
-      <c r="BO41" s="3"/>
+      <c r="BN41" s="30">
+        <v>45525.581006944441</v>
+      </c>
+      <c r="BO41" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A42" s="35"/>
@@ -16490,7 +16510,7 @@
       <c r="AP42" s="45"/>
       <c r="AQ42" s="46"/>
       <c r="AR42" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS42" s="47"/>
@@ -16499,20 +16519,20 @@
       <c r="AV42" s="44"/>
       <c r="AW42" s="48"/>
       <c r="AX42" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY42" s="47"/>
       <c r="AZ42" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA42" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB42" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC42" s="9"/>
@@ -16525,8 +16545,12 @@
       <c r="BJ42" s="12"/>
       <c r="BK42" s="12"/>
       <c r="BL42" s="12"/>
-      <c r="BN42" s="30"/>
-      <c r="BO42" s="3"/>
+      <c r="BN42" s="30">
+        <v>45525.581956018519</v>
+      </c>
+      <c r="BO42" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A43" s="35"/>
@@ -16579,7 +16603,7 @@
       <c r="AP43" s="45"/>
       <c r="AQ43" s="46"/>
       <c r="AR43" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS43" s="47"/>
@@ -16588,20 +16612,20 @@
       <c r="AV43" s="44"/>
       <c r="AW43" s="48"/>
       <c r="AX43" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY43" s="47"/>
       <c r="AZ43" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA43" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB43" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC43" s="9"/>
@@ -16614,8 +16638,12 @@
       <c r="BJ43" s="12"/>
       <c r="BK43" s="12"/>
       <c r="BL43" s="12"/>
-      <c r="BN43" s="30"/>
-      <c r="BO43" s="3"/>
+      <c r="BN43" s="30">
+        <v>45525.582546296297</v>
+      </c>
+      <c r="BO43" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A44" s="35"/>
@@ -16668,7 +16696,7 @@
       <c r="AP44" s="45"/>
       <c r="AQ44" s="46"/>
       <c r="AR44" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS44" s="47"/>
@@ -16677,20 +16705,20 @@
       <c r="AV44" s="44"/>
       <c r="AW44" s="48"/>
       <c r="AX44" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY44" s="47"/>
       <c r="AZ44" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA44" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB44" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC44" s="9"/>
@@ -16703,8 +16731,12 @@
       <c r="BJ44" s="12"/>
       <c r="BK44" s="12"/>
       <c r="BL44" s="12"/>
-      <c r="BN44" s="30"/>
-      <c r="BO44" s="3"/>
+      <c r="BN44" s="30">
+        <v>45525.583680555559</v>
+      </c>
+      <c r="BO44" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A45" s="35"/>
@@ -16757,7 +16789,7 @@
       <c r="AP45" s="45"/>
       <c r="AQ45" s="46"/>
       <c r="AR45" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS45" s="47"/>
@@ -16766,20 +16798,20 @@
       <c r="AV45" s="44"/>
       <c r="AW45" s="48"/>
       <c r="AX45" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY45" s="47"/>
       <c r="AZ45" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA45" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB45" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC45" s="9"/>
@@ -16792,8 +16824,12 @@
       <c r="BJ45" s="12"/>
       <c r="BK45" s="12"/>
       <c r="BL45" s="12"/>
-      <c r="BN45" s="30"/>
-      <c r="BO45" s="3"/>
+      <c r="BN45" s="30">
+        <v>45525.584745370368</v>
+      </c>
+      <c r="BO45" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A46" s="35"/>
@@ -16846,7 +16882,7 @@
       <c r="AP46" s="45"/>
       <c r="AQ46" s="46"/>
       <c r="AR46" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS46" s="47"/>
@@ -16855,20 +16891,20 @@
       <c r="AV46" s="44"/>
       <c r="AW46" s="48"/>
       <c r="AX46" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY46" s="47"/>
       <c r="AZ46" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA46" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB46" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC46" s="9"/>
@@ -16881,8 +16917,12 @@
       <c r="BJ46" s="12"/>
       <c r="BK46" s="12"/>
       <c r="BL46" s="12"/>
-      <c r="BN46" s="30"/>
-      <c r="BO46" s="3"/>
+      <c r="BN46" s="30">
+        <v>45525.585810185185</v>
+      </c>
+      <c r="BO46" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A47" s="35"/>
@@ -16935,7 +16975,7 @@
       <c r="AP47" s="45"/>
       <c r="AQ47" s="46"/>
       <c r="AR47" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS47" s="47"/>
@@ -16944,20 +16984,20 @@
       <c r="AV47" s="44"/>
       <c r="AW47" s="48"/>
       <c r="AX47" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY47" s="47"/>
       <c r="AZ47" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA47" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB47" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC47" s="9"/>
@@ -16970,8 +17010,12 @@
       <c r="BJ47" s="12"/>
       <c r="BK47" s="12"/>
       <c r="BL47" s="12"/>
-      <c r="BN47" s="30"/>
-      <c r="BO47" s="3"/>
+      <c r="BN47" s="30">
+        <v>45525.586631944447</v>
+      </c>
+      <c r="BO47" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A48" s="35"/>
@@ -17024,7 +17068,7 @@
       <c r="AP48" s="45"/>
       <c r="AQ48" s="46"/>
       <c r="AR48" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS48" s="47"/>
@@ -17033,20 +17077,20 @@
       <c r="AV48" s="44"/>
       <c r="AW48" s="48"/>
       <c r="AX48" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY48" s="47"/>
       <c r="AZ48" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA48" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB48" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC48" s="9"/>
@@ -17059,8 +17103,12 @@
       <c r="BJ48" s="12"/>
       <c r="BK48" s="12"/>
       <c r="BL48" s="12"/>
-      <c r="BN48" s="30"/>
-      <c r="BO48" s="3"/>
+      <c r="BN48" s="30">
+        <v>45525.587118055555</v>
+      </c>
+      <c r="BO48" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A49" s="35"/>
@@ -17113,7 +17161,7 @@
       <c r="AP49" s="45"/>
       <c r="AQ49" s="46"/>
       <c r="AR49" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS49" s="47"/>
@@ -17122,20 +17170,20 @@
       <c r="AV49" s="44"/>
       <c r="AW49" s="48"/>
       <c r="AX49" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY49" s="47"/>
       <c r="AZ49" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA49" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB49" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC49" s="9"/>
@@ -17148,8 +17196,12 @@
       <c r="BJ49" s="12"/>
       <c r="BK49" s="12"/>
       <c r="BL49" s="12"/>
-      <c r="BN49" s="30"/>
-      <c r="BO49" s="3"/>
+      <c r="BN49" s="30">
+        <v>45525.587905092594</v>
+      </c>
+      <c r="BO49" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A50" s="35"/>
@@ -17202,7 +17254,7 @@
       <c r="AP50" s="45"/>
       <c r="AQ50" s="46"/>
       <c r="AR50" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS50" s="47"/>
@@ -17211,20 +17263,20 @@
       <c r="AV50" s="44"/>
       <c r="AW50" s="48"/>
       <c r="AX50" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY50" s="47"/>
       <c r="AZ50" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA50" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB50" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC50" s="9"/>
@@ -17237,8 +17289,12 @@
       <c r="BJ50" s="12"/>
       <c r="BK50" s="12"/>
       <c r="BL50" s="12"/>
-      <c r="BN50" s="30"/>
-      <c r="BO50" s="3"/>
+      <c r="BN50" s="30">
+        <v>45525.588946759257</v>
+      </c>
+      <c r="BO50" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A51" s="35"/>
@@ -17291,7 +17347,7 @@
       <c r="AP51" s="45"/>
       <c r="AQ51" s="46"/>
       <c r="AR51" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS51" s="47"/>
@@ -17300,20 +17356,20 @@
       <c r="AV51" s="44"/>
       <c r="AW51" s="48"/>
       <c r="AX51" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY51" s="47"/>
       <c r="AZ51" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA51" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB51" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC51" s="9"/>
@@ -17326,8 +17382,12 @@
       <c r="BJ51" s="12"/>
       <c r="BK51" s="12"/>
       <c r="BL51" s="12"/>
-      <c r="BN51" s="30"/>
-      <c r="BO51" s="3"/>
+      <c r="BN51" s="30">
+        <v>45525.589791666665</v>
+      </c>
+      <c r="BO51" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A52" s="35"/>
@@ -17380,7 +17440,7 @@
       <c r="AP52" s="45"/>
       <c r="AQ52" s="46"/>
       <c r="AR52" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS52" s="47"/>
@@ -17389,20 +17449,20 @@
       <c r="AV52" s="44"/>
       <c r="AW52" s="48"/>
       <c r="AX52" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY52" s="47"/>
       <c r="AZ52" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA52" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB52" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC52" s="9"/>
@@ -17415,8 +17475,12 @@
       <c r="BJ52" s="12"/>
       <c r="BK52" s="12"/>
       <c r="BL52" s="12"/>
-      <c r="BN52" s="30"/>
-      <c r="BO52" s="3"/>
+      <c r="BN52" s="30">
+        <v>45525.590810185182</v>
+      </c>
+      <c r="BO52" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A53" s="35"/>
@@ -17469,7 +17533,7 @@
       <c r="AP53" s="45"/>
       <c r="AQ53" s="46"/>
       <c r="AR53" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS53" s="47"/>
@@ -17478,20 +17542,20 @@
       <c r="AV53" s="44"/>
       <c r="AW53" s="48"/>
       <c r="AX53" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY53" s="47"/>
       <c r="AZ53" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA53" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB53" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC53" s="9"/>
@@ -17504,8 +17568,12 @@
       <c r="BJ53" s="12"/>
       <c r="BK53" s="12"/>
       <c r="BL53" s="12"/>
-      <c r="BN53" s="30"/>
-      <c r="BO53" s="3"/>
+      <c r="BN53" s="30">
+        <v>45525.591631944444</v>
+      </c>
+      <c r="BO53" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A54" s="35"/>
@@ -17558,7 +17626,7 @@
       <c r="AP54" s="45"/>
       <c r="AQ54" s="46"/>
       <c r="AR54" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS54" s="47"/>
@@ -17567,20 +17635,20 @@
       <c r="AV54" s="44"/>
       <c r="AW54" s="48"/>
       <c r="AX54" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY54" s="47"/>
       <c r="AZ54" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA54" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB54" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC54" s="9"/>
@@ -17593,8 +17661,12 @@
       <c r="BJ54" s="12"/>
       <c r="BK54" s="12"/>
       <c r="BL54" s="12"/>
-      <c r="BN54" s="30"/>
-      <c r="BO54" s="3"/>
+      <c r="BN54" s="30">
+        <v>45525.592627314814</v>
+      </c>
+      <c r="BO54" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A55" s="35"/>
@@ -17647,7 +17719,7 @@
       <c r="AP55" s="45"/>
       <c r="AQ55" s="46"/>
       <c r="AR55" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS55" s="47"/>
@@ -17656,20 +17728,20 @@
       <c r="AV55" s="44"/>
       <c r="AW55" s="48"/>
       <c r="AX55" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY55" s="47"/>
       <c r="AZ55" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA55" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB55" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC55" s="9"/>
@@ -17682,8 +17754,12 @@
       <c r="BJ55" s="12"/>
       <c r="BK55" s="12"/>
       <c r="BL55" s="12"/>
-      <c r="BN55" s="30"/>
-      <c r="BO55" s="3"/>
+      <c r="BN55" s="30">
+        <v>45525.593252314815</v>
+      </c>
+      <c r="BO55" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A56" s="35"/>
@@ -17736,7 +17812,7 @@
       <c r="AP56" s="45"/>
       <c r="AQ56" s="46"/>
       <c r="AR56" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS56" s="47"/>
@@ -17745,20 +17821,20 @@
       <c r="AV56" s="44"/>
       <c r="AW56" s="48"/>
       <c r="AX56" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY56" s="47"/>
       <c r="AZ56" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA56" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB56" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC56" s="9"/>
@@ -17771,8 +17847,12 @@
       <c r="BJ56" s="12"/>
       <c r="BK56" s="12"/>
       <c r="BL56" s="12"/>
-      <c r="BN56" s="30"/>
-      <c r="BO56" s="3"/>
+      <c r="BN56" s="30">
+        <v>45525.594201388885</v>
+      </c>
+      <c r="BO56" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A57" s="35"/>
@@ -17825,7 +17905,7 @@
       <c r="AP57" s="45"/>
       <c r="AQ57" s="46"/>
       <c r="AR57" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS57" s="47"/>
@@ -17834,20 +17914,20 @@
       <c r="AV57" s="44"/>
       <c r="AW57" s="48"/>
       <c r="AX57" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY57" s="47"/>
       <c r="AZ57" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA57" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB57" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC57" s="9"/>
@@ -17860,8 +17940,12 @@
       <c r="BJ57" s="12"/>
       <c r="BK57" s="12"/>
       <c r="BL57" s="12"/>
-      <c r="BN57" s="30"/>
-      <c r="BO57" s="3"/>
+      <c r="BN57" s="30">
+        <v>45525.595150462963</v>
+      </c>
+      <c r="BO57" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A58" s="35"/>
@@ -17914,7 +17998,7 @@
       <c r="AP58" s="45"/>
       <c r="AQ58" s="46"/>
       <c r="AR58" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS58" s="47"/>
@@ -17923,20 +18007,20 @@
       <c r="AV58" s="44"/>
       <c r="AW58" s="48"/>
       <c r="AX58" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY58" s="47"/>
       <c r="AZ58" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA58" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB58" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC58" s="9"/>
@@ -17949,8 +18033,12 @@
       <c r="BJ58" s="12"/>
       <c r="BK58" s="12"/>
       <c r="BL58" s="12"/>
-      <c r="BN58" s="30"/>
-      <c r="BO58" s="3"/>
+      <c r="BN58" s="30">
+        <v>45525.595717592594</v>
+      </c>
+      <c r="BO58" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A59" s="35"/>
@@ -18003,7 +18091,7 @@
       <c r="AP59" s="45"/>
       <c r="AQ59" s="46"/>
       <c r="AR59" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS59" s="47"/>
@@ -18012,20 +18100,20 @@
       <c r="AV59" s="44"/>
       <c r="AW59" s="48"/>
       <c r="AX59" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY59" s="47"/>
       <c r="AZ59" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA59" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB59" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC59" s="9"/>
@@ -18038,8 +18126,12 @@
       <c r="BJ59" s="12"/>
       <c r="BK59" s="12"/>
       <c r="BL59" s="12"/>
-      <c r="BN59" s="30"/>
-      <c r="BO59" s="3"/>
+      <c r="BN59" s="30">
+        <v>45525.596597222226</v>
+      </c>
+      <c r="BO59" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A60" s="35"/>
@@ -18092,7 +18184,7 @@
       <c r="AP60" s="45"/>
       <c r="AQ60" s="46"/>
       <c r="AR60" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS60" s="47"/>
@@ -18101,20 +18193,20 @@
       <c r="AV60" s="44"/>
       <c r="AW60" s="48"/>
       <c r="AX60" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY60" s="47"/>
       <c r="AZ60" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA60" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB60" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC60" s="9"/>
@@ -18127,8 +18219,12 @@
       <c r="BJ60" s="12"/>
       <c r="BK60" s="12"/>
       <c r="BL60" s="12"/>
-      <c r="BN60" s="30"/>
-      <c r="BO60" s="3"/>
+      <c r="BN60" s="30">
+        <v>45525.59716435185</v>
+      </c>
+      <c r="BO60" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A61" s="35"/>
@@ -18181,7 +18277,7 @@
       <c r="AP61" s="45"/>
       <c r="AQ61" s="46"/>
       <c r="AR61" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS61" s="47"/>
@@ -18190,20 +18286,20 @@
       <c r="AV61" s="44"/>
       <c r="AW61" s="48"/>
       <c r="AX61" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY61" s="47"/>
       <c r="AZ61" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA61" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB61" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC61" s="9"/>
@@ -18216,8 +18312,12 @@
       <c r="BJ61" s="12"/>
       <c r="BK61" s="12"/>
       <c r="BL61" s="12"/>
-      <c r="BN61" s="30"/>
-      <c r="BO61" s="3"/>
+      <c r="BN61" s="30">
+        <v>45525.598229166666</v>
+      </c>
+      <c r="BO61" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A62" s="35"/>
@@ -18270,7 +18370,7 @@
       <c r="AP62" s="45"/>
       <c r="AQ62" s="46"/>
       <c r="AR62" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS62" s="47"/>
@@ -18279,20 +18379,20 @@
       <c r="AV62" s="44"/>
       <c r="AW62" s="48"/>
       <c r="AX62" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY62" s="47"/>
       <c r="AZ62" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA62" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB62" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC62" s="9"/>
@@ -18305,8 +18405,12 @@
       <c r="BJ62" s="12"/>
       <c r="BK62" s="12"/>
       <c r="BL62" s="12"/>
-      <c r="BN62" s="30"/>
-      <c r="BO62" s="3"/>
+      <c r="BN62" s="30">
+        <v>45525.599189814813</v>
+      </c>
+      <c r="BO62" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:67" x14ac:dyDescent="0.45">
       <c r="A63" s="35"/>
@@ -18359,7 +18463,7 @@
       <c r="AP63" s="45"/>
       <c r="AQ63" s="46"/>
       <c r="AR63" s="47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AS63" s="47"/>
@@ -18368,20 +18472,20 @@
       <c r="AV63" s="44"/>
       <c r="AW63" s="48"/>
       <c r="AX63" s="46" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AY63" s="47"/>
       <c r="AZ63" s="47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA63" s="49" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="BB63" s="50" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="BC63" s="9"/>
@@ -20949,326 +21053,275 @@
     <mergeCell ref="AC14:AK14"/>
   </mergeCells>
   <conditionalFormatting sqref="G12:I12 U12:AC12">
-    <cfRule type="expression" dxfId="155" priority="188">
+    <cfRule type="expression" dxfId="112" priority="229">
       <formula>OR(G12="SELL",G12="SHORT")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="217">
+    <cfRule type="expression" dxfId="111" priority="200">
       <formula>OR(G12="SELL",G12="SHORT")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G16:I16 U16:AC16">
+    <cfRule type="expression" dxfId="110" priority="62">
+      <formula>OR(G16="SELL",G16="SHORT")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G24:I63 U24:AC63">
-    <cfRule type="expression" dxfId="153" priority="172">
+    <cfRule type="expression" dxfId="109" priority="184">
       <formula>OR(G24="SELL",G24="SHORT")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24:J25">
-    <cfRule type="expression" dxfId="152" priority="56">
-      <formula>OR(G24="SELL",G24="SHORT")</formula>
+  <conditionalFormatting sqref="G16:J25">
+    <cfRule type="expression" dxfId="108" priority="13">
+      <formula>OR(G16="SELL",G16="SHORT")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:AQ12 AV12 BA12:BB12">
-    <cfRule type="containsText" dxfId="151" priority="186" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="107" priority="227" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",G12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="215" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="106" priority="198" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",G12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV23:AV25 BA23:BB63 G23:AQ25">
-    <cfRule type="containsText" dxfId="149" priority="144" operator="containsText" text="SELL">
+  <conditionalFormatting sqref="G16:AQ22 AV16:AV22 BA16:BB63">
+    <cfRule type="containsText" dxfId="105" priority="52" operator="containsText" text="SELL">
+      <formula>NOT(ISERROR(SEARCH("SELL",G16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:AQ22 AV16:AV22">
+    <cfRule type="containsText" dxfId="104" priority="54" operator="containsText" text="SELL">
+      <formula>NOT(ISERROR(SEARCH("SELL",G16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:AQ22 AV16:AV25 BD16:BD63">
+    <cfRule type="containsText" dxfId="103" priority="60" operator="containsText" text="SELL">
+      <formula>NOT(ISERROR(SEARCH("SELL",G16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:AQ25 AV23:AV25">
+    <cfRule type="containsText" dxfId="102" priority="182" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",G23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV23:AV25 G23:AQ25">
-    <cfRule type="containsText" dxfId="148" priority="170" operator="containsText" text="SELL">
+  <conditionalFormatting sqref="G23:AQ25">
+    <cfRule type="containsText" dxfId="101" priority="156" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",G23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA1:BB1 AV23:AV63 BD23:BD63 G23:AQ63">
-    <cfRule type="containsText" dxfId="147" priority="254" operator="containsText" text="SELL">
+  <conditionalFormatting sqref="G23:AQ63 AV23:AV63 BA1:BB1">
+    <cfRule type="containsText" dxfId="100" priority="266" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I5">
-    <cfRule type="containsText" dxfId="146" priority="126" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="99" priority="138" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="containsText" dxfId="145" priority="128" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="98" priority="140" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",I8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="expression" dxfId="144" priority="173">
+    <cfRule type="expression" dxfId="97" priority="185">
       <formula>OR(J12="SELL",J12="SHORT")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J16:J22">
+    <cfRule type="expression" dxfId="96" priority="56">
+      <formula>OR(J16="SELL",J16="SHORT")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J23:J25">
-    <cfRule type="expression" dxfId="143" priority="189">
+    <cfRule type="expression" dxfId="95" priority="201">
       <formula>OR(J23="SELL",J23="SHORT")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:Q5">
-    <cfRule type="containsText" dxfId="142" priority="125" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="94" priority="137" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",P2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:Q8">
-    <cfRule type="containsText" dxfId="141" priority="127" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="93" priority="139" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",P8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U24:V1048576 U1:V15">
-    <cfRule type="cellIs" dxfId="140" priority="231" operator="equal">
+  <conditionalFormatting sqref="U1:V15 U24:V1048576">
+    <cfRule type="cellIs" dxfId="92" priority="243" operator="equal">
       <formula>"No Analysis"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12:V12">
-    <cfRule type="expression" dxfId="139" priority="175">
+    <cfRule type="expression" dxfId="91" priority="212">
       <formula>OR(U12="SELL",U12="SHORT")</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="199" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="90" priority="211" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",U12)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="200">
+    <cfRule type="expression" dxfId="89" priority="187">
       <formula>OR(U12="SELL",U12="SHORT")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="U16:V16">
+    <cfRule type="cellIs" dxfId="88" priority="57" operator="equal">
+      <formula>"No Analysis"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="45" operator="containsText" text="SELL">
+      <formula>NOT(ISERROR(SEARCH("SELL",U16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U17:V17">
+    <cfRule type="cellIs" dxfId="86" priority="3" operator="equal">
+      <formula>"No Analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U17:V21">
+    <cfRule type="containsText" dxfId="85" priority="1" operator="containsText" text="SELL">
+      <formula>NOT(ISERROR(SEARCH("SELL",U17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U18:V21">
+    <cfRule type="cellIs" dxfId="84" priority="7" operator="equal">
+      <formula>"No Analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U22:V22">
+    <cfRule type="containsText" dxfId="83" priority="16" operator="containsText" text="SELL">
+      <formula>NOT(ISERROR(SEARCH("SELL",U22)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="18" operator="equal">
+      <formula>"No Analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U23:V23">
+    <cfRule type="expression" dxfId="81" priority="34">
+      <formula>OR(U23="SELL",U23="SHORT")</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="33" operator="equal">
+      <formula>"No Analysis"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="30" operator="containsText" text="SELL">
+      <formula>NOT(ISERROR(SEARCH("SELL",U23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U24:V25">
-    <cfRule type="containsText" dxfId="136" priority="121" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="78" priority="133" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",U24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U24:V63">
-    <cfRule type="expression" dxfId="135" priority="233">
+    <cfRule type="expression" dxfId="77" priority="245">
       <formula>OR(U24="SELL",U24="SHORT")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U24:AC25">
-    <cfRule type="expression" dxfId="134" priority="62">
-      <formula>OR(U24="SELL",U24="SHORT")</formula>
+  <conditionalFormatting sqref="U16:AC16">
+    <cfRule type="expression" dxfId="76" priority="46">
+      <formula>OR(U16="SELL",U16="SHORT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U16:AC23">
+    <cfRule type="expression" dxfId="75" priority="19">
+      <formula>OR(U16="SELL",U16="SHORT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U17:AC17">
+    <cfRule type="expression" dxfId="74" priority="2">
+      <formula>OR(U17="SELL",U17="SHORT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U17:AC21 G17:I23">
+    <cfRule type="expression" dxfId="73" priority="4">
+      <formula>OR(G17="SELL",G17="SHORT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U18:AC22">
+    <cfRule type="expression" dxfId="72" priority="8">
+      <formula>OR(U18="SELL",U18="SHORT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U22:AC22">
+    <cfRule type="expression" dxfId="71" priority="17">
+      <formula>OR(U22="SELL",U22="SHORT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U23:AC25">
+    <cfRule type="expression" dxfId="70" priority="31">
+      <formula>OR(U23="SELL",U23="SHORT")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U24:AC25">
-    <cfRule type="expression" dxfId="133" priority="122">
+    <cfRule type="expression" dxfId="69" priority="134">
       <formula>OR(U24="SELL",U24="SHORT")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO12 AV12">
-    <cfRule type="containsText" dxfId="132" priority="185" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="68" priority="197" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",AO12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="214" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="67" priority="226" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",AO12)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AO16:AO22 AV16:AV22">
+    <cfRule type="containsText" dxfId="66" priority="53" operator="containsText" text="BUY">
+      <formula>NOT(ISERROR(SEARCH("BUY",AO16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="51" operator="containsText" text="BUY">
+      <formula>NOT(ISERROR(SEARCH("BUY",AO16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO16:AO25 AV16:AV25">
+    <cfRule type="containsText" dxfId="64" priority="59" operator="containsText" text="BUY">
+      <formula>NOT(ISERROR(SEARCH("BUY",AO16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AO23:AO25 AV23:AV25">
-    <cfRule type="containsText" dxfId="130" priority="143" operator="containsText" text="BUY">
-      <formula>NOT(ISERROR(SEARCH("BUY",AO23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="169" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="63" priority="181" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",AO23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO23:AO63 AV23:AV63">
-    <cfRule type="containsText" dxfId="128" priority="253" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="62" priority="265" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",AO23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU12">
-    <cfRule type="cellIs" dxfId="127" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="196" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU23:AU63">
-    <cfRule type="cellIs" dxfId="126" priority="142" operator="equal">
+  <conditionalFormatting sqref="AU16:AU63">
+    <cfRule type="cellIs" dxfId="60" priority="50" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX12">
-    <cfRule type="containsText" dxfId="125" priority="174" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="59" priority="186" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",AX12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX23:AX63">
-    <cfRule type="containsText" dxfId="124" priority="132" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",AX23)))</formula>
+  <conditionalFormatting sqref="AX16:AX63">
+    <cfRule type="containsText" dxfId="58" priority="49" operator="containsText" text="SELL">
+      <formula>NOT(ISERROR(SEARCH("SELL",AX16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA1:BB1 BA24:BB63">
-    <cfRule type="cellIs" dxfId="123" priority="255" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="267" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA12:BB12">
-    <cfRule type="cellIs" dxfId="122" priority="187" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="199" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="216" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="228" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA24:BB25">
-    <cfRule type="cellIs" dxfId="120" priority="57" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:I16 U16:AC16">
-    <cfRule type="expression" dxfId="119" priority="50">
-      <formula>OR(G16="SELL",G16="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:J16">
-    <cfRule type="expression" dxfId="118" priority="27">
-      <formula>OR(G16="SELL",G16="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:AQ22 AV16:AV22 BA16:BB22">
-    <cfRule type="containsText" dxfId="117" priority="40" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",G16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:AQ22 AV16:AV22">
-    <cfRule type="containsText" dxfId="116" priority="42" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",G16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:AQ22 AV16:AV22 BD16:BD22">
-    <cfRule type="containsText" dxfId="115" priority="48" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",G16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16:J22">
-    <cfRule type="expression" dxfId="114" priority="44">
-      <formula>OR(J16="SELL",J16="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U16:V16">
-    <cfRule type="cellIs" dxfId="113" priority="45" operator="equal">
-      <formula>"No Analysis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U16:V16">
-    <cfRule type="containsText" dxfId="112" priority="33" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",U16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U16:AC16">
-    <cfRule type="expression" dxfId="111" priority="34">
-      <formula>OR(U16="SELL",U16="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U16:AC16">
-    <cfRule type="expression" dxfId="110" priority="32">
-      <formula>OR(U16="SELL",U16="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO16:AO22 AV16:AV22">
-    <cfRule type="containsText" dxfId="109" priority="39" operator="containsText" text="BUY">
-      <formula>NOT(ISERROR(SEARCH("BUY",AO16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="41" operator="containsText" text="BUY">
-      <formula>NOT(ISERROR(SEARCH("BUY",AO16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO16:AO22 AV16:AV22">
-    <cfRule type="containsText" dxfId="107" priority="47" operator="containsText" text="BUY">
-      <formula>NOT(ISERROR(SEARCH("BUY",AO16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU16:AU22">
-    <cfRule type="cellIs" dxfId="106" priority="38" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX16:AX22">
-    <cfRule type="containsText" dxfId="105" priority="37" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",AX16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA16:BB16">
-    <cfRule type="cellIs" dxfId="104" priority="28" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23:I23 U23:AC23">
-    <cfRule type="expression" dxfId="103" priority="20">
-      <formula>OR(G23="SELL",G23="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23:J23">
-    <cfRule type="expression" dxfId="102" priority="15">
-      <formula>OR(G23="SELL",G23="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U23:V23">
-    <cfRule type="cellIs" dxfId="101" priority="21" operator="equal">
-      <formula>"No Analysis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U23:V23">
-    <cfRule type="containsText" dxfId="100" priority="18" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",U23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U23:V23">
-    <cfRule type="expression" dxfId="99" priority="22">
-      <formula>OR(U23="SELL",U23="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U23:AC23">
-    <cfRule type="expression" dxfId="98" priority="17">
-      <formula>OR(U23="SELL",U23="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U23:AC23">
-    <cfRule type="expression" dxfId="97" priority="19">
-      <formula>OR(U23="SELL",U23="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA23:BB23">
-    <cfRule type="cellIs" dxfId="96" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA23:BB23">
-    <cfRule type="cellIs" dxfId="95" priority="16" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:I22 U17:AC22">
-    <cfRule type="expression" dxfId="94" priority="7">
-      <formula>OR(G17="SELL",G17="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:J22">
-    <cfRule type="expression" dxfId="93" priority="1">
-      <formula>OR(G17="SELL",G17="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U17:V22">
-    <cfRule type="cellIs" dxfId="92" priority="6" operator="equal">
-      <formula>"No Analysis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U17:V22">
-    <cfRule type="containsText" dxfId="91" priority="4" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",U17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U17:AC22">
-    <cfRule type="expression" dxfId="90" priority="5">
-      <formula>OR(U17="SELL",U17="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U17:AC22">
-    <cfRule type="expression" dxfId="89" priority="3">
-      <formula>OR(U17="SELL",U17="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA17:BB22">
-    <cfRule type="cellIs" dxfId="88" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="BA16:BB25">
+    <cfRule type="cellIs" dxfId="54" priority="14" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21282,7 +21335,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ12" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"UP,SIDE,DOWN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="BA1:BB1 U29:V63 AO12:BB12 W29:X31 G12:J12 U12:AC12 AZ16:BB63 AX16:AX63 U16:X28 AR16:AR63" xr:uid="{00000000-0002-0000-0300-000003000000}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="BA1:BB1 U29:V63 AO12:BB12 W29:X31 G12:J12 U12:AC12 AR16:AR63 U16:X28 AX16:AX63 AZ16:BB63" xr:uid="{00000000-0002-0000-0300-000003000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter valid date as (mm/dd/yy)" sqref="AU15 AF15:AN15" xr:uid="{00000000-0002-0000-0300-000004000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21293,10 +21346,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0123FF09-AEC7-407D-9A57-787A363F04E4}">
-  <dimension ref="A1:BB23"/>
+  <dimension ref="A1:BB11"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -21328,128 +21381,128 @@
     <row r="8" spans="1:54" ht="6.85" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="1:54" ht="6.85" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="10" spans="1:54" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="84" t="s">
+      <c r="G10" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="84" t="s">
+      <c r="H10" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="84" t="s">
+      <c r="I10" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="84" t="s">
+      <c r="J10" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="84" t="s">
+      <c r="K10" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="L10" s="84" t="s">
+      <c r="L10" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="84"/>
-      <c r="T10" s="84"/>
-      <c r="U10" s="84" t="s">
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="V10" s="84" t="s">
+      <c r="V10" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="W10" s="84" t="s">
+      <c r="W10" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="X10" s="84" t="s">
+      <c r="X10" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="Y10" s="84" t="s">
+      <c r="Y10" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="Z10" s="84" t="s">
+      <c r="Z10" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="AA10" s="84" t="s">
+      <c r="AA10" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="AB10" s="84" t="s">
+      <c r="AB10" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="AC10" s="84"/>
-      <c r="AD10" s="84"/>
-      <c r="AE10" s="84"/>
-      <c r="AF10" s="84"/>
-      <c r="AG10" s="84"/>
-      <c r="AH10" s="84"/>
-      <c r="AI10" s="84"/>
-      <c r="AJ10" s="84"/>
-      <c r="AK10" s="84"/>
-      <c r="AL10" s="84"/>
-      <c r="AM10" s="84" t="s">
+      <c r="AC10" s="69"/>
+      <c r="AD10" s="69"/>
+      <c r="AE10" s="69"/>
+      <c r="AF10" s="69"/>
+      <c r="AG10" s="69"/>
+      <c r="AH10" s="69"/>
+      <c r="AI10" s="69"/>
+      <c r="AJ10" s="69"/>
+      <c r="AK10" s="69"/>
+      <c r="AL10" s="69"/>
+      <c r="AM10" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AN10" s="84" t="s">
+      <c r="AN10" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="AO10" s="84" t="s">
+      <c r="AO10" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="AP10" s="84" t="s">
+      <c r="AP10" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="AQ10" s="84" t="s">
+      <c r="AQ10" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="AR10" s="84" t="s">
+      <c r="AR10" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="AS10" s="84" t="s">
+      <c r="AS10" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AT10" s="84"/>
-      <c r="AU10" s="84" t="s">
+      <c r="AT10" s="69"/>
+      <c r="AU10" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="AV10" s="84" t="s">
+      <c r="AV10" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="AW10" s="84" t="s">
+      <c r="AW10" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="AX10" s="84" t="s">
+      <c r="AX10" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="AY10" s="84" t="s">
+      <c r="AY10" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AZ10" s="84" t="s">
+      <c r="AZ10" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="BA10" s="85" t="s">
+      <c r="BA10" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="BB10" s="85" t="s">
+      <c r="BB10" s="70" t="s">
         <v>5</v>
       </c>
     </row>
@@ -21475,11 +21528,11 @@
       <c r="S11" s="40"/>
       <c r="T11" s="41"/>
       <c r="U11" s="42" t="str">
-        <f>IF(F11&lt;&gt;"",IFERROR(HLOOKUP("prediction_xgb_"&amp;F11,ML_prediction!$D$4:$AP$6,3,0),"No Analysis"),"")</f>
+        <f>IF(F11&lt;&gt;"",IFERROR(HLOOKUP("prediction_xgb_"&amp;F11,[1]ML_prediction!$D$4:$AP$6,3,0),"No Analysis"),"")</f>
         <v/>
       </c>
       <c r="V11" s="42" t="str">
-        <f>IF(F11&lt;&gt;"",IFERROR(HLOOKUP("prediction_LR_"&amp;F11,ML_prediction!$D$4:$AP$6,3,0),"No Analysis"),"")</f>
+        <f>IF(F11&lt;&gt;"",IFERROR(HLOOKUP("prediction_LR_"&amp;F11,[1]ML_prediction!$D$4:$AP$6,3,0),"No Analysis"),"")</f>
         <v/>
       </c>
       <c r="W11" s="43"/>
@@ -21504,7 +21557,7 @@
       <c r="AP11" s="45"/>
       <c r="AQ11" s="46"/>
       <c r="AR11" s="47">
-        <f t="shared" ref="AR11:AR21" si="0">AQ11*AP11*H11</f>
+        <f t="shared" ref="AR11" si="0">AQ11*AP11*H11</f>
         <v>0</v>
       </c>
       <c r="AS11" s="47"/>
@@ -21513,1212 +21566,16 @@
       <c r="AV11" s="44"/>
       <c r="AW11" s="48"/>
       <c r="AX11" s="46" t="str">
-        <f t="shared" ref="AX11:AX21" si="1">IF(AQ11&lt;&gt;"",AQ11, "")</f>
+        <f t="shared" ref="AX11" si="1">IF(AQ11&lt;&gt;"",AQ11, "")</f>
         <v/>
       </c>
       <c r="AY11" s="47"/>
       <c r="AZ11" s="47" t="str">
-        <f>IF(AY11&lt;&gt;"",AY11*AX11*H11*0.4,"")</f>
+        <f>IF(AY11&lt;&gt;"",AY11*AX11*H11,"")</f>
         <v/>
       </c>
       <c r="BA11" s="49" t="str">
-        <f t="shared" ref="BA11:BA21" si="2">IF(AO11&lt;&gt;"",IF(AO11="BUY",(AZ11-AR11),-(AZ11-AR11)),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.45">
-      <c r="A12" s="55"/>
-      <c r="B12" s="56">
-        <v>45516.446932870371</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="57">
-        <v>15</v>
-      </c>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="59">
-        <v>50</v>
-      </c>
-      <c r="L12" s="59">
-        <v>100</v>
-      </c>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="61" t="str">
-        <f>IF(F12&lt;&gt;"",IFERROR(HLOOKUP("prediction_xgb_"&amp;F12,ML_prediction!$D$4:$AP$6,3,0),"No Analysis"),"")</f>
-        <v>Side-way</v>
-      </c>
-      <c r="V12" s="61" t="str">
-        <f>IF(F12&lt;&gt;"",IFERROR(HLOOKUP("prediction_LR_"&amp;F12,ML_prediction!$D$4:$AP$6,3,0),"No Analysis"),"")</f>
-        <v>Down</v>
-      </c>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="62"/>
-      <c r="AC12" s="62"/>
-      <c r="AD12" s="60"/>
-      <c r="AE12" s="60"/>
-      <c r="AF12" s="60"/>
-      <c r="AG12" s="60"/>
-      <c r="AH12" s="60"/>
-      <c r="AI12" s="60"/>
-      <c r="AJ12" s="60"/>
-      <c r="AK12" s="60"/>
-      <c r="AL12" s="63"/>
-      <c r="AM12" s="60"/>
-      <c r="AN12" s="60"/>
-      <c r="AO12" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP12" s="65">
-        <v>288.25</v>
-      </c>
-      <c r="AQ12" s="66">
-        <v>4</v>
-      </c>
-      <c r="AR12" s="67">
-        <f t="shared" ref="AR12:AR37" si="3">AQ12*AP12*H12</f>
-        <v>17295</v>
-      </c>
-      <c r="AS12" s="67"/>
-      <c r="AT12" s="68"/>
-      <c r="AU12" s="63">
-        <v>45516.625150462962</v>
-      </c>
-      <c r="AV12" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW12" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="AX12" s="66">
-        <f t="shared" ref="AX12:AX37" si="4">IF(AQ12&lt;&gt;"",AQ12, "")</f>
-        <v>4</v>
-      </c>
-      <c r="AY12" s="67">
-        <v>315.89999999999998</v>
-      </c>
-      <c r="AZ12" s="67">
-        <f t="shared" ref="AZ12:AZ15" si="5">IF(AY12&lt;&gt;"",AY12*AX12*H12,"")</f>
-        <v>18954</v>
-      </c>
-      <c r="BA12" s="69">
-        <f t="shared" ref="BA12:BA37" si="6">IF(AO12&lt;&gt;"",IF(AO12="BUY",(AZ12-AR12),-(AZ12-AR12)),"")</f>
-        <v>-1659</v>
-      </c>
-    </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.45">
-      <c r="A13" s="55"/>
-      <c r="B13" s="56">
-        <v>45516.446944444448</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="57">
-        <v>15</v>
-      </c>
-      <c r="I13" s="57"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59">
-        <v>50</v>
-      </c>
-      <c r="L13" s="59">
-        <v>100</v>
-      </c>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="61" t="str">
-        <f>IF(F13&lt;&gt;"",IFERROR(HLOOKUP("prediction_xgb_"&amp;F13,ML_prediction!$D$4:$AP$6,3,0),"No Analysis"),"")</f>
-        <v>Side-way</v>
-      </c>
-      <c r="V13" s="61" t="str">
-        <f>IF(F13&lt;&gt;"",IFERROR(HLOOKUP("prediction_LR_"&amp;F13,ML_prediction!$D$4:$AP$6,3,0),"No Analysis"),"")</f>
-        <v>Down</v>
-      </c>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="62"/>
-      <c r="AD13" s="60"/>
-      <c r="AE13" s="60"/>
-      <c r="AF13" s="60"/>
-      <c r="AG13" s="60"/>
-      <c r="AH13" s="60"/>
-      <c r="AI13" s="60"/>
-      <c r="AJ13" s="60"/>
-      <c r="AK13" s="60"/>
-      <c r="AL13" s="63"/>
-      <c r="AM13" s="60"/>
-      <c r="AN13" s="60"/>
-      <c r="AO13" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP13" s="65">
-        <v>348.95</v>
-      </c>
-      <c r="AQ13" s="66">
-        <v>4</v>
-      </c>
-      <c r="AR13" s="67">
-        <f t="shared" si="3"/>
-        <v>20937</v>
-      </c>
-      <c r="AS13" s="67"/>
-      <c r="AT13" s="68"/>
-      <c r="AU13" s="63">
-        <v>45516.625173611108</v>
-      </c>
-      <c r="AV13" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW13" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="AX13" s="66">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AY13" s="67">
-        <v>263.8</v>
-      </c>
-      <c r="AZ13" s="67">
-        <f t="shared" si="5"/>
-        <v>15828</v>
-      </c>
-      <c r="BA13" s="69">
-        <f t="shared" si="6"/>
-        <v>-5109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.45">
-      <c r="A14" s="55"/>
-      <c r="B14" s="56">
-        <v>45516.458009259259</v>
-      </c>
-      <c r="C14" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="H14" s="57">
-        <v>25</v>
-      </c>
-      <c r="I14" s="57"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59">
-        <v>50</v>
-      </c>
-      <c r="L14" s="59">
-        <v>100</v>
-      </c>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="61" t="str">
-        <f>IF(F14&lt;&gt;"",IFERROR(HLOOKUP("prediction_xgb_"&amp;F14,ML_prediction!$D$4:$AP$6,3,0),"No Analysis"),"")</f>
-        <v>Side-way</v>
-      </c>
-      <c r="V14" s="61" t="str">
-        <f>IF(F14&lt;&gt;"",IFERROR(HLOOKUP("prediction_LR_"&amp;F14,ML_prediction!$D$4:$AP$6,3,0),"No Analysis"),"")</f>
-        <v>Side-way</v>
-      </c>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
-      <c r="AD14" s="60"/>
-      <c r="AE14" s="60"/>
-      <c r="AF14" s="60"/>
-      <c r="AG14" s="60"/>
-      <c r="AH14" s="60"/>
-      <c r="AI14" s="60"/>
-      <c r="AJ14" s="60"/>
-      <c r="AK14" s="60"/>
-      <c r="AL14" s="63"/>
-      <c r="AM14" s="60"/>
-      <c r="AN14" s="60"/>
-      <c r="AO14" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP14" s="65">
-        <v>103.95</v>
-      </c>
-      <c r="AQ14" s="66">
-        <v>7</v>
-      </c>
-      <c r="AR14" s="67">
-        <f t="shared" si="3"/>
-        <v>18191.25</v>
-      </c>
-      <c r="AS14" s="67"/>
-      <c r="AT14" s="68"/>
-      <c r="AU14" s="63">
-        <v>45516.625185185185</v>
-      </c>
-      <c r="AV14" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW14" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX14" s="66">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="AY14" s="67">
-        <v>151.30000000000001</v>
-      </c>
-      <c r="AZ14" s="67">
-        <f t="shared" si="5"/>
-        <v>26477.500000000004</v>
-      </c>
-      <c r="BA14" s="69">
-        <f t="shared" si="6"/>
-        <v>-8286.2500000000036</v>
-      </c>
-    </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.45">
-      <c r="A15" s="55"/>
-      <c r="B15" s="56">
-        <v>45516.458032407405</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" s="57">
-        <v>25</v>
-      </c>
-      <c r="I15" s="57"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59">
-        <v>50</v>
-      </c>
-      <c r="L15" s="59">
-        <v>100</v>
-      </c>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="61" t="str">
-        <f>IF(F15&lt;&gt;"",IFERROR(HLOOKUP("prediction_xgb_"&amp;F15,ML_prediction!$D$4:$AP$6,3,0),"No Analysis"),"")</f>
-        <v>Side-way</v>
-      </c>
-      <c r="V15" s="61" t="str">
-        <f>IF(F15&lt;&gt;"",IFERROR(HLOOKUP("prediction_LR_"&amp;F15,ML_prediction!$D$4:$AP$6,3,0),"No Analysis"),"")</f>
-        <v>Side-way</v>
-      </c>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
-      <c r="AD15" s="60"/>
-      <c r="AE15" s="60"/>
-      <c r="AF15" s="60"/>
-      <c r="AG15" s="60"/>
-      <c r="AH15" s="60"/>
-      <c r="AI15" s="60"/>
-      <c r="AJ15" s="60"/>
-      <c r="AK15" s="60"/>
-      <c r="AL15" s="63"/>
-      <c r="AM15" s="60"/>
-      <c r="AN15" s="60"/>
-      <c r="AO15" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP15" s="65">
-        <v>149.1</v>
-      </c>
-      <c r="AQ15" s="66">
-        <v>7</v>
-      </c>
-      <c r="AR15" s="67">
-        <f t="shared" si="3"/>
-        <v>26092.5</v>
-      </c>
-      <c r="AS15" s="67"/>
-      <c r="AT15" s="68"/>
-      <c r="AU15" s="63">
-        <v>45516.625208333331</v>
-      </c>
-      <c r="AV15" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW15" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX15" s="66">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="AY15" s="67">
-        <v>86.4</v>
-      </c>
-      <c r="AZ15" s="67">
-        <f t="shared" si="5"/>
-        <v>15120.000000000002</v>
-      </c>
-      <c r="BA15" s="69">
-        <f t="shared" si="6"/>
-        <v>-10972.499999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.45">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="42" t="str">
-        <f>IF(F16&lt;&gt;"",IFERROR(HLOOKUP("prediction_xgb_"&amp;F16,[1]ML_prediction!$D$4:$AP$6,3,0),"No Analysis"),"")</f>
-        <v/>
-      </c>
-      <c r="V16" s="42" t="str">
-        <f>IF(F16&lt;&gt;"",IFERROR(HLOOKUP("prediction_LR_"&amp;F16,[1]ML_prediction!$D$4:$AP$6,3,0),"No Analysis"),"")</f>
-        <v/>
-      </c>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="43"/>
-      <c r="AC16" s="43"/>
-      <c r="AD16" s="41"/>
-      <c r="AE16" s="41"/>
-      <c r="AF16" s="41"/>
-      <c r="AG16" s="41"/>
-      <c r="AH16" s="41"/>
-      <c r="AI16" s="41"/>
-      <c r="AJ16" s="41"/>
-      <c r="AK16" s="41"/>
-      <c r="AL16" s="40"/>
-      <c r="AM16" s="41"/>
-      <c r="AN16" s="41"/>
-      <c r="AO16" s="44"/>
-      <c r="AP16" s="45"/>
-      <c r="AQ16" s="46"/>
-      <c r="AR16" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AS16" s="47"/>
-      <c r="AT16" s="48"/>
-      <c r="AU16" s="40"/>
-      <c r="AV16" s="44"/>
-      <c r="AW16" s="48"/>
-      <c r="AX16" s="46" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AY16" s="47"/>
-      <c r="AZ16" s="47" t="str">
-        <f>IF(AY16&lt;&gt;"",AY16*AX16*H16,"")</f>
-        <v/>
-      </c>
-      <c r="BA16" s="49" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A17" s="55"/>
-      <c r="B17" s="56">
-        <v>45517.576851851853</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" s="57">
-        <v>15</v>
-      </c>
-      <c r="I17" s="57"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59">
-        <v>50</v>
-      </c>
-      <c r="L17" s="59">
-        <v>100</v>
-      </c>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="61" t="str">
-        <f>IF(F17&lt;&gt;"",IFERROR(HLOOKUP("prediction_xgb_"&amp;F17,ML_prediction!$D$4:$AP$6,3,0),"No Analysis"),"")</f>
-        <v>Side-way</v>
-      </c>
-      <c r="V17" s="61" t="str">
-        <f>IF(F17&lt;&gt;"",IFERROR(HLOOKUP("prediction_LR_"&amp;F17,ML_prediction!$D$4:$AP$6,3,0),"No Analysis"),"")</f>
-        <v>Down</v>
-      </c>
-      <c r="W17" s="62"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="62"/>
-      <c r="AB17" s="62"/>
-      <c r="AC17" s="62"/>
-      <c r="AD17" s="60"/>
-      <c r="AE17" s="60"/>
-      <c r="AF17" s="60"/>
-      <c r="AG17" s="60"/>
-      <c r="AH17" s="60"/>
-      <c r="AI17" s="60"/>
-      <c r="AJ17" s="60"/>
-      <c r="AK17" s="60"/>
-      <c r="AL17" s="63"/>
-      <c r="AM17" s="60"/>
-      <c r="AN17" s="60"/>
-      <c r="AO17" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP17" s="65">
-        <v>218</v>
-      </c>
-      <c r="AQ17" s="66">
-        <v>6</v>
-      </c>
-      <c r="AR17" s="67">
-        <f t="shared" si="3"/>
-        <v>19620</v>
-      </c>
-      <c r="AS17" s="67"/>
-      <c r="AT17" s="68"/>
-      <c r="AU17" s="63">
-        <v>45517.625532407408</v>
-      </c>
-      <c r="AV17" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW17" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="AX17" s="66">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="AY17" s="67">
-        <v>127.45</v>
-      </c>
-      <c r="AZ17" s="67">
-        <f t="shared" ref="AZ17:AZ23" si="7">IF(AY17&lt;&gt;"",AY17*AX17*H17,"")</f>
-        <v>11470.5</v>
-      </c>
-      <c r="BA17" s="69">
-        <f t="shared" si="6"/>
-        <v>8149.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A18" s="55"/>
-      <c r="B18" s="56">
-        <v>45517.576863425929</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="57">
-        <v>15</v>
-      </c>
-      <c r="I18" s="57"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59">
-        <v>50</v>
-      </c>
-      <c r="L18" s="59">
-        <v>100</v>
-      </c>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="60"/>
-      <c r="U18" s="61" t="str">
-        <f>IF(F18&lt;&gt;"",IFERROR(HLOOKUP("prediction_xgb_"&amp;F18,ML_prediction!$D$4:$AP$6,3,0),"No Analysis"),"")</f>
-        <v>Side-way</v>
-      </c>
-      <c r="V18" s="61" t="str">
-        <f>IF(F18&lt;&gt;"",IFERROR(HLOOKUP("prediction_LR_"&amp;F18,ML_prediction!$D$4:$AP$6,3,0),"No Analysis"),"")</f>
-        <v>Down</v>
-      </c>
-      <c r="W18" s="62"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="62"/>
-      <c r="AB18" s="62"/>
-      <c r="AC18" s="62"/>
-      <c r="AD18" s="60"/>
-      <c r="AE18" s="60"/>
-      <c r="AF18" s="60"/>
-      <c r="AG18" s="60"/>
-      <c r="AH18" s="60"/>
-      <c r="AI18" s="60"/>
-      <c r="AJ18" s="60"/>
-      <c r="AK18" s="60"/>
-      <c r="AL18" s="63"/>
-      <c r="AM18" s="60"/>
-      <c r="AN18" s="60"/>
-      <c r="AO18" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP18" s="65">
-        <v>249.35</v>
-      </c>
-      <c r="AQ18" s="66">
-        <v>6</v>
-      </c>
-      <c r="AR18" s="67">
-        <f t="shared" si="3"/>
-        <v>22441.5</v>
-      </c>
-      <c r="AS18" s="67"/>
-      <c r="AT18" s="68"/>
-      <c r="AU18" s="63">
-        <v>45517.625532407408</v>
-      </c>
-      <c r="AV18" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW18" s="68" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX18" s="66">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="AY18" s="67">
-        <v>373.9</v>
-      </c>
-      <c r="AZ18" s="67">
-        <f t="shared" si="7"/>
-        <v>33650.999999999993</v>
-      </c>
-      <c r="BA18" s="69">
-        <f t="shared" si="6"/>
-        <v>11209.499999999993</v>
-      </c>
-    </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A19" s="55"/>
-      <c r="B19" s="56">
-        <v>45517.576967592591</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" s="57">
-        <v>25</v>
-      </c>
-      <c r="I19" s="57"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="59">
-        <v>50</v>
-      </c>
-      <c r="L19" s="59">
-        <v>100</v>
-      </c>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="63"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="61" t="str">
-        <f>IF(F19&lt;&gt;"",IFERROR(HLOOKUP("prediction_xgb_"&amp;F19,ML_prediction!$D$4:$AP$6,3,0),"No Analysis"),"")</f>
-        <v>Side-way</v>
-      </c>
-      <c r="V19" s="61" t="str">
-        <f>IF(F19&lt;&gt;"",IFERROR(HLOOKUP("prediction_LR_"&amp;F19,ML_prediction!$D$4:$AP$6,3,0),"No Analysis"),"")</f>
-        <v>Side-way</v>
-      </c>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
-      <c r="AD19" s="60"/>
-      <c r="AE19" s="60"/>
-      <c r="AF19" s="60"/>
-      <c r="AG19" s="60"/>
-      <c r="AH19" s="60"/>
-      <c r="AI19" s="60"/>
-      <c r="AJ19" s="60"/>
-      <c r="AK19" s="60"/>
-      <c r="AL19" s="63"/>
-      <c r="AM19" s="60"/>
-      <c r="AN19" s="60"/>
-      <c r="AO19" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP19" s="65">
-        <v>87.45</v>
-      </c>
-      <c r="AQ19" s="66">
-        <v>9</v>
-      </c>
-      <c r="AR19" s="67">
-        <f t="shared" si="3"/>
-        <v>19676.25</v>
-      </c>
-      <c r="AS19" s="67"/>
-      <c r="AT19" s="68"/>
-      <c r="AU19" s="63">
-        <v>45517.625543981485</v>
-      </c>
-      <c r="AV19" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW19" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX19" s="66">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="AY19" s="67">
-        <v>70.3</v>
-      </c>
-      <c r="AZ19" s="67">
-        <f t="shared" si="7"/>
-        <v>15817.499999999998</v>
-      </c>
-      <c r="BA19" s="69">
-        <f t="shared" si="6"/>
-        <v>3858.7500000000018</v>
-      </c>
-    </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A20" s="55"/>
-      <c r="B20" s="56">
-        <v>45517.576979166668</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" s="57">
-        <v>25</v>
-      </c>
-      <c r="I20" s="57"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59">
-        <v>50</v>
-      </c>
-      <c r="L20" s="59">
-        <v>100</v>
-      </c>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="63"/>
-      <c r="T20" s="60"/>
-      <c r="U20" s="61" t="str">
-        <f>IF(F20&lt;&gt;"",IFERROR(HLOOKUP("prediction_xgb_"&amp;F20,ML_prediction!$D$4:$AP$6,3,0),"No Analysis"),"")</f>
-        <v>Side-way</v>
-      </c>
-      <c r="V20" s="61" t="str">
-        <f>IF(F20&lt;&gt;"",IFERROR(HLOOKUP("prediction_LR_"&amp;F20,ML_prediction!$D$4:$AP$6,3,0),"No Analysis"),"")</f>
-        <v>Side-way</v>
-      </c>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="62"/>
-      <c r="AB20" s="62"/>
-      <c r="AC20" s="62"/>
-      <c r="AD20" s="60"/>
-      <c r="AE20" s="60"/>
-      <c r="AF20" s="60"/>
-      <c r="AG20" s="60"/>
-      <c r="AH20" s="60"/>
-      <c r="AI20" s="60"/>
-      <c r="AJ20" s="60"/>
-      <c r="AK20" s="60"/>
-      <c r="AL20" s="63"/>
-      <c r="AM20" s="60"/>
-      <c r="AN20" s="60"/>
-      <c r="AO20" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP20" s="65">
-        <v>103</v>
-      </c>
-      <c r="AQ20" s="66">
-        <v>9</v>
-      </c>
-      <c r="AR20" s="67">
-        <f t="shared" si="3"/>
-        <v>23175</v>
-      </c>
-      <c r="AS20" s="67"/>
-      <c r="AT20" s="68"/>
-      <c r="AU20" s="63">
-        <v>45517.625555555554</v>
-      </c>
-      <c r="AV20" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW20" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="AX20" s="66">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="AY20" s="67">
-        <v>106</v>
-      </c>
-      <c r="AZ20" s="67">
-        <f t="shared" si="7"/>
-        <v>23850</v>
-      </c>
-      <c r="BA20" s="69">
-        <f t="shared" si="6"/>
-        <v>675</v>
-      </c>
-    </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A21" s="55"/>
-      <c r="B21" s="56">
-        <v>45517.57708333333</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="H21" s="57">
-        <v>25</v>
-      </c>
-      <c r="I21" s="57"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="59">
-        <v>50</v>
-      </c>
-      <c r="L21" s="59">
-        <v>100</v>
-      </c>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="63"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="61" t="str">
-        <f>IF(F21&lt;&gt;"",IFERROR(HLOOKUP("prediction_xgb_"&amp;F21,ML_prediction!$D$4:$AP$6,3,0),"No Analysis"),"")</f>
-        <v>Side-way</v>
-      </c>
-      <c r="V21" s="61" t="str">
-        <f>IF(F21&lt;&gt;"",IFERROR(HLOOKUP("prediction_LR_"&amp;F21,ML_prediction!$D$4:$AP$6,3,0),"No Analysis"),"")</f>
-        <v>Down</v>
-      </c>
-      <c r="W21" s="62"/>
-      <c r="X21" s="62"/>
-      <c r="Y21" s="62"/>
-      <c r="Z21" s="62"/>
-      <c r="AA21" s="62"/>
-      <c r="AB21" s="62"/>
-      <c r="AC21" s="62"/>
-      <c r="AD21" s="60"/>
-      <c r="AE21" s="60"/>
-      <c r="AF21" s="60"/>
-      <c r="AG21" s="60"/>
-      <c r="AH21" s="60"/>
-      <c r="AI21" s="60"/>
-      <c r="AJ21" s="60"/>
-      <c r="AK21" s="60"/>
-      <c r="AL21" s="63"/>
-      <c r="AM21" s="60"/>
-      <c r="AN21" s="60"/>
-      <c r="AO21" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP21" s="65">
-        <v>32.15</v>
-      </c>
-      <c r="AQ21" s="66">
-        <v>25</v>
-      </c>
-      <c r="AR21" s="67">
-        <f t="shared" si="3"/>
-        <v>20093.75</v>
-      </c>
-      <c r="AS21" s="67"/>
-      <c r="AT21" s="68"/>
-      <c r="AU21" s="63">
-        <v>45517.625567129631</v>
-      </c>
-      <c r="AV21" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW21" s="68" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX21" s="66">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="AY21" s="67">
-        <v>0.6</v>
-      </c>
-      <c r="AZ21" s="67">
-        <f t="shared" si="7"/>
-        <v>375</v>
-      </c>
-      <c r="BA21" s="69">
-        <f t="shared" si="6"/>
-        <v>19718.75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A22" s="55"/>
-      <c r="B22" s="56">
-        <v>45517.577094907407</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="57">
-        <v>25</v>
-      </c>
-      <c r="I22" s="57"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="59">
-        <v>50</v>
-      </c>
-      <c r="L22" s="59">
-        <v>100</v>
-      </c>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="63"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="61" t="str">
-        <f>IF(F22&lt;&gt;"",IFERROR(HLOOKUP("prediction_xgb_"&amp;F22,ML_prediction!$D$4:$AP$6,3,0),"No Analysis"),"")</f>
-        <v>Side-way</v>
-      </c>
-      <c r="V22" s="61" t="str">
-        <f>IF(F22&lt;&gt;"",IFERROR(HLOOKUP("prediction_LR_"&amp;F22,ML_prediction!$D$4:$AP$6,3,0),"No Analysis"),"")</f>
-        <v>Down</v>
-      </c>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="62"/>
-      <c r="AA22" s="62"/>
-      <c r="AB22" s="62"/>
-      <c r="AC22" s="62"/>
-      <c r="AD22" s="60"/>
-      <c r="AE22" s="60"/>
-      <c r="AF22" s="60"/>
-      <c r="AG22" s="60"/>
-      <c r="AH22" s="60"/>
-      <c r="AI22" s="60"/>
-      <c r="AJ22" s="60"/>
-      <c r="AK22" s="60"/>
-      <c r="AL22" s="63"/>
-      <c r="AM22" s="60"/>
-      <c r="AN22" s="60"/>
-      <c r="AO22" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP22" s="65">
-        <v>23.3</v>
-      </c>
-      <c r="AQ22" s="66">
-        <v>25</v>
-      </c>
-      <c r="AR22" s="67">
-        <f t="shared" si="3"/>
-        <v>14562.5</v>
-      </c>
-      <c r="AS22" s="67"/>
-      <c r="AT22" s="68"/>
-      <c r="AU22" s="63">
-        <v>45517.58929398148</v>
-      </c>
-      <c r="AV22" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW22" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="AX22" s="66">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="AY22" s="67">
-        <v>46.3</v>
-      </c>
-      <c r="AZ22" s="67">
-        <f t="shared" si="7"/>
-        <v>28937.5</v>
-      </c>
-      <c r="BA22" s="69">
-        <f t="shared" si="6"/>
-        <v>14375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.45">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="42" t="str">
-        <f>IF(F23&lt;&gt;"",IFERROR(HLOOKUP("prediction_xgb_"&amp;F23,[1]ML_prediction!$D$4:$AP$6,3,0),"No Analysis"),"")</f>
-        <v/>
-      </c>
-      <c r="V23" s="42" t="str">
-        <f>IF(F23&lt;&gt;"",IFERROR(HLOOKUP("prediction_LR_"&amp;F23,[1]ML_prediction!$D$4:$AP$6,3,0),"No Analysis"),"")</f>
-        <v/>
-      </c>
-      <c r="W23" s="43"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="43"/>
-      <c r="AA23" s="43"/>
-      <c r="AB23" s="43"/>
-      <c r="AC23" s="43"/>
-      <c r="AD23" s="41"/>
-      <c r="AE23" s="41"/>
-      <c r="AF23" s="41"/>
-      <c r="AG23" s="41"/>
-      <c r="AH23" s="41"/>
-      <c r="AI23" s="41"/>
-      <c r="AJ23" s="41"/>
-      <c r="AK23" s="41"/>
-      <c r="AL23" s="40"/>
-      <c r="AM23" s="41"/>
-      <c r="AN23" s="41"/>
-      <c r="AO23" s="44"/>
-      <c r="AP23" s="45"/>
-      <c r="AQ23" s="46"/>
-      <c r="AR23" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AS23" s="47"/>
-      <c r="AT23" s="48"/>
-      <c r="AU23" s="40"/>
-      <c r="AV23" s="44"/>
-      <c r="AW23" s="48"/>
-      <c r="AX23" s="46" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AY23" s="47"/>
-      <c r="AZ23" s="47" t="str">
-        <f>IF(AY23&lt;&gt;"",AY23*AX23*H23,"")</f>
-        <v/>
-      </c>
-      <c r="BA23" s="49" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="BA11" si="2">IF(AO11&lt;&gt;"",IF(AO11="BUY",(AZ11-AR11),-(AZ11-AR11)),"")</f>
         <v/>
       </c>
     </row>
@@ -22726,413 +21583,90 @@
   <protectedRanges>
     <protectedRange sqref="M10:AV10 AX10:BB10" name="text_1"/>
   </protectedRanges>
+  <conditionalFormatting sqref="U10:V10">
+    <cfRule type="cellIs" dxfId="47" priority="522" operator="equal">
+      <formula>"No Analysis"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G11:I11 U11:AC11">
-    <cfRule type="expression" dxfId="87" priority="261">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>OR(G11="SELL",G11="SHORT")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:J11">
-    <cfRule type="expression" dxfId="86" priority="232">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>OR(G11="SELL",G11="SHORT")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:AQ11 AV11 BA11">
-    <cfRule type="containsText" dxfId="85" priority="254" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:AQ11 AV11">
-    <cfRule type="containsText" dxfId="84" priority="256" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="260" operator="containsText" text="SELL">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:AQ11 AV11">
+    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="82" priority="257">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>OR(J11="SELL",J11="SHORT")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U10:V11">
-    <cfRule type="cellIs" dxfId="81" priority="258" operator="equal">
+  <conditionalFormatting sqref="U11:V11">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="SELL">
+      <formula>NOT(ISERROR(SEARCH("SELL",U11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"No Analysis"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U11:V11">
-    <cfRule type="containsText" dxfId="80" priority="245" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",U11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="U11:AC11">
-    <cfRule type="expression" dxfId="79" priority="246">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>OR(U11="SELL",U11="SHORT")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11:AC11">
-    <cfRule type="expression" dxfId="78" priority="238">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>OR(U11="SELL",U11="SHORT")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO11 AV11">
-    <cfRule type="containsText" dxfId="77" priority="253" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",AO11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="255" operator="containsText" text="BUY">
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",AO11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="259" operator="containsText" text="BUY">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO11 AV11">
+    <cfRule type="containsText" dxfId="3" priority="14" operator="containsText" text="BUY">
       <formula>NOT(ISERROR(SEARCH("BUY",AO11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU11">
-    <cfRule type="cellIs" dxfId="74" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX11">
-    <cfRule type="containsText" dxfId="73" priority="251" operator="containsText" text="SELL">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="SELL">
       <formula>NOT(ISERROR(SEARCH("SELL",AX11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA11">
-    <cfRule type="cellIs" dxfId="72" priority="233" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:AQ15 AV12:AV15 BA12:BA15">
-    <cfRule type="containsText" dxfId="71" priority="223" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",G12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:AQ15 AV12:AV15">
-    <cfRule type="containsText" dxfId="70" priority="225" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",G12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:AQ15 AV12:AV15">
-    <cfRule type="containsText" dxfId="69" priority="229" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",G12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12:J15">
-    <cfRule type="expression" dxfId="68" priority="226">
-      <formula>OR(J12="SELL",J12="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO12:AO15 AV12:AV15">
-    <cfRule type="containsText" dxfId="67" priority="222" operator="containsText" text="BUY">
-      <formula>NOT(ISERROR(SEARCH("BUY",AO12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="224" operator="containsText" text="BUY">
-      <formula>NOT(ISERROR(SEARCH("BUY",AO12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO12:AO15 AV12:AV15">
-    <cfRule type="containsText" dxfId="65" priority="228" operator="containsText" text="BUY">
-      <formula>NOT(ISERROR(SEARCH("BUY",AO12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU12:AU15">
-    <cfRule type="cellIs" dxfId="64" priority="221" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX12:AX15">
-    <cfRule type="containsText" dxfId="63" priority="220" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",AX12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA12:BA15">
-    <cfRule type="cellIs" dxfId="62" priority="213" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:I15 U12:AC15">
-    <cfRule type="expression" dxfId="61" priority="210">
-      <formula>OR(G12="SELL",G12="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:I15">
-    <cfRule type="expression" dxfId="60" priority="205">
-      <formula>OR(G12="SELL",G12="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:J15">
-    <cfRule type="expression" dxfId="59" priority="204">
-      <formula>OR(G12="SELL",G12="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U12:V15">
-    <cfRule type="cellIs" dxfId="58" priority="209" operator="equal">
-      <formula>"No Analysis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U12:V15">
-    <cfRule type="containsText" dxfId="57" priority="206" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",U12)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="207">
-      <formula>OR(U12="SELL",U12="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U12:AC15">
-    <cfRule type="expression" dxfId="55" priority="208">
-      <formula>OR(U12="SELL",U12="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U12:AC15">
-    <cfRule type="expression" dxfId="54" priority="203">
-      <formula>OR(U12="SELL",U12="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV17:AV22 BA17:BA22 G17:AQ22">
-    <cfRule type="containsText" dxfId="53" priority="197" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",G17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV17:AV22 G17:AQ22">
-    <cfRule type="containsText" dxfId="52" priority="199" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",G17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV17:AV22 G17:AQ22">
-    <cfRule type="containsText" dxfId="51" priority="202" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",G17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J22">
-    <cfRule type="expression" dxfId="50" priority="200">
-      <formula>OR(J17="SELL",J17="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO17:AO22 AV17:AV22">
-    <cfRule type="containsText" dxfId="49" priority="196" operator="containsText" text="BUY">
-      <formula>NOT(ISERROR(SEARCH("BUY",AO17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="198" operator="containsText" text="BUY">
-      <formula>NOT(ISERROR(SEARCH("BUY",AO17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO17:AO22 AV17:AV22">
-    <cfRule type="containsText" dxfId="47" priority="201" operator="containsText" text="BUY">
-      <formula>NOT(ISERROR(SEARCH("BUY",AO17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU17:AU22">
-    <cfRule type="cellIs" dxfId="46" priority="195" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX17:AX22">
-    <cfRule type="containsText" dxfId="45" priority="194" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",AX17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:I16 U16:AC16">
-    <cfRule type="expression" dxfId="44" priority="193">
-      <formula>OR(G16="SELL",G16="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:J16">
-    <cfRule type="expression" dxfId="43" priority="178">
-      <formula>OR(G16="SELL",G16="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:AQ16 AV16 BA16">
-    <cfRule type="containsText" dxfId="42" priority="186" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",G16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:AQ16 AV16">
-    <cfRule type="containsText" dxfId="41" priority="188" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",G16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:AQ16 AV16">
-    <cfRule type="containsText" dxfId="40" priority="192" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",G16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="39" priority="189">
-      <formula>OR(J16="SELL",J16="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U16:V16">
-    <cfRule type="cellIs" dxfId="38" priority="190" operator="equal">
-      <formula>"No Analysis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U16:V16">
-    <cfRule type="containsText" dxfId="37" priority="181" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",U16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U16:AC16">
-    <cfRule type="expression" dxfId="36" priority="182">
-      <formula>OR(U16="SELL",U16="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U16:AC16">
-    <cfRule type="expression" dxfId="35" priority="180">
-      <formula>OR(U16="SELL",U16="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO16 AV16">
-    <cfRule type="containsText" dxfId="34" priority="185" operator="containsText" text="BUY">
-      <formula>NOT(ISERROR(SEARCH("BUY",AO16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="187" operator="containsText" text="BUY">
-      <formula>NOT(ISERROR(SEARCH("BUY",AO16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO16 AV16">
-    <cfRule type="containsText" dxfId="32" priority="191" operator="containsText" text="BUY">
-      <formula>NOT(ISERROR(SEARCH("BUY",AO16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU16">
-    <cfRule type="cellIs" dxfId="31" priority="184" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX16">
-    <cfRule type="containsText" dxfId="30" priority="183" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",AX16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA16">
-    <cfRule type="cellIs" dxfId="29" priority="179" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:I22 U17:AC22">
-    <cfRule type="expression" dxfId="28" priority="174">
-      <formula>OR(G17="SELL",G17="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:J22">
-    <cfRule type="expression" dxfId="27" priority="169">
-      <formula>OR(G17="SELL",G17="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U17:V22">
-    <cfRule type="cellIs" dxfId="26" priority="175" operator="equal">
-      <formula>"No Analysis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U17:V22">
-    <cfRule type="containsText" dxfId="25" priority="172" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",U17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U17:V22">
-    <cfRule type="expression" dxfId="24" priority="176">
-      <formula>OR(U17="SELL",U17="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U17:AC22">
-    <cfRule type="expression" dxfId="23" priority="171">
-      <formula>OR(U17="SELL",U17="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U17:AC22">
-    <cfRule type="expression" dxfId="22" priority="173">
-      <formula>OR(U17="SELL",U17="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA17:BA22">
-    <cfRule type="cellIs" dxfId="21" priority="177" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA17:BA22">
-    <cfRule type="cellIs" dxfId="20" priority="170" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23:I23 U23:AC23">
-    <cfRule type="expression" dxfId="19" priority="16">
-      <formula>OR(G23="SELL",G23="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23:J23">
-    <cfRule type="expression" dxfId="18" priority="1">
-      <formula>OR(G23="SELL",G23="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23:AQ23 AV23 BA23">
-    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",G23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23:AQ23 AV23">
-    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",G23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23:AQ23 AV23">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",G23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="expression" dxfId="14" priority="12">
-      <formula>OR(J23="SELL",J23="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U23:V23">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
-      <formula>"No Analysis"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U23:V23">
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",U23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U23:AC23">
-    <cfRule type="expression" dxfId="11" priority="5">
-      <formula>OR(U23="SELL",U23="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U23:AC23">
-    <cfRule type="expression" dxfId="10" priority="3">
-      <formula>OR(U23="SELL",U23="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO23 AV23">
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="BUY">
-      <formula>NOT(ISERROR(SEARCH("BUY",AO23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="BUY">
-      <formula>NOT(ISERROR(SEARCH("BUY",AO23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO23 AV23">
-    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="BUY">
-      <formula>NOT(ISERROR(SEARCH("BUY",AO23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU23">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX23">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="SELL">
-      <formula>NOT(ISERROR(SEARCH("SELL",AX23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA23">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter valid date as (mm/dd/yy)" sqref="AU10 AF10:AN10" xr:uid="{1F7EA658-7910-48DA-A69D-8AAC56042CB0}"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="AR11:AR23 U11:X23 AX11:AX23 AZ11:BA23" xr:uid="{D6156277-D724-47A1-98F4-BD1A3B533C8B}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="AR11 U11:X11 AX11 AZ11:BA11" xr:uid="{F2DE09FB-F432-442F-A5F2-33291B6F49A6}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23146,11 +21680,11 @@
   </sheetPr>
   <dimension ref="B1:AP200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="7" ySplit="12" topLeftCell="H13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23170,7 +21704,15 @@
     <row r="6" spans="2:42" ht="7.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="2:42" ht="7.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="2:42" ht="7.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="2:42" ht="7.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="2:42" x14ac:dyDescent="0.45">
+      <c r="M9" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" s="76">
+        <f>SUM(M13:M200)</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="10" spans="2:42" ht="7.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="2:42" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="19"/>
@@ -23181,18 +21723,18 @@
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="90" t="s">
+      <c r="J11" s="57"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="92"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="84"/>
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
       <c r="V11" s="20"/>
@@ -23240,16 +21782,16 @@
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="20" t="s">
         <v>86</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="P12" s="20" t="s">
-        <v>89</v>
       </c>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
@@ -23280,11 +21822,11 @@
     </row>
     <row r="13" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B13" s="21"/>
-      <c r="C13" s="71">
-        <v>45516.625069444446</v>
-      </c>
-      <c r="D13" s="70">
-        <v>45516</v>
+      <c r="C13" s="56">
+        <v>45525.654537037037</v>
+      </c>
+      <c r="D13" s="55">
+        <v>45525</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
@@ -23297,7 +21839,7 @@
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
       <c r="M13" s="28">
-        <v>-3456</v>
+        <v>0</v>
       </c>
       <c r="N13" s="28"/>
       <c r="O13" s="28"/>
@@ -23331,11 +21873,11 @@
     </row>
     <row r="14" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B14" s="21"/>
-      <c r="C14" s="71">
-        <v>45516.625104166669</v>
-      </c>
-      <c r="D14" s="70">
-        <v>45516</v>
+      <c r="C14" s="56">
+        <v>45525.65457175926</v>
+      </c>
+      <c r="D14" s="55">
+        <v>45525</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -23348,7 +21890,7 @@
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
       <c r="M14" s="28">
-        <v>-18156.25</v>
+        <v>0</v>
       </c>
       <c r="N14" s="28"/>
       <c r="O14" s="28"/>
@@ -23382,16 +21924,16 @@
     </row>
     <row r="15" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B15" s="21"/>
-      <c r="C15" s="71">
-        <v>45517.85728009259</v>
-      </c>
-      <c r="D15" s="70">
-        <v>45517</v>
+      <c r="C15" s="56">
+        <v>45525.654594907406</v>
+      </c>
+      <c r="D15" s="55">
+        <v>45525</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
       <c r="G15" s="28" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
@@ -23399,7 +21941,7 @@
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
       <c r="M15" s="28">
-        <v>19358.999999999993</v>
+        <v>0</v>
       </c>
       <c r="N15" s="28"/>
       <c r="O15" s="28"/>
@@ -23433,25 +21975,17 @@
     </row>
     <row r="16" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B16" s="21"/>
-      <c r="C16" s="71">
-        <v>45517.857303240744</v>
-      </c>
-      <c r="D16" s="70">
-        <v>45517</v>
-      </c>
+      <c r="C16" s="56"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
-      <c r="G16" s="28" t="s">
-        <v>64</v>
-      </c>
+      <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
-      <c r="M16" s="28">
-        <v>4533.7500000000018</v>
-      </c>
+      <c r="M16" s="28"/>
       <c r="N16" s="28"/>
       <c r="O16" s="28"/>
       <c r="P16" s="28"/>
@@ -23484,25 +22018,17 @@
     </row>
     <row r="17" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B17" s="21"/>
-      <c r="C17" s="71">
-        <v>45517.85732638889</v>
-      </c>
-      <c r="D17" s="70">
-        <v>45517</v>
-      </c>
+      <c r="C17" s="56"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
-      <c r="G17" s="28" t="s">
-        <v>65</v>
-      </c>
+      <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
       <c r="L17" s="28"/>
-      <c r="M17" s="28">
-        <v>34093.75</v>
-      </c>
+      <c r="M17" s="28"/>
       <c r="N17" s="28"/>
       <c r="O17" s="28"/>
       <c r="P17" s="28"/>
@@ -23535,25 +22061,17 @@
     </row>
     <row r="18" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B18" s="21"/>
-      <c r="C18" s="71">
-        <v>45518.727500000001</v>
-      </c>
-      <c r="D18" s="70">
-        <v>45518</v>
-      </c>
+      <c r="C18" s="56"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
-      <c r="G18" s="28" t="s">
-        <v>31</v>
-      </c>
+      <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
       <c r="K18" s="28"/>
       <c r="L18" s="28"/>
-      <c r="M18" s="28">
-        <v>0</v>
-      </c>
+      <c r="M18" s="28"/>
       <c r="N18" s="28"/>
       <c r="O18" s="28"/>
       <c r="P18" s="28"/>
@@ -23586,24 +22104,17 @@
     </row>
     <row r="19" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B19" s="21"/>
-      <c r="C19" s="71">
-        <v>45518.727523148147</v>
-      </c>
-      <c r="D19" s="70">
-        <v>45518</v>
-      </c>
+      <c r="C19" s="56"/>
+      <c r="D19" s="55"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="28" t="s">
-        <v>64</v>
-      </c>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
       <c r="K19" s="28"/>
       <c r="L19" s="28"/>
-      <c r="M19" s="28">
-        <v>0</v>
-      </c>
+      <c r="M19" s="28"/>
       <c r="N19" s="28"/>
       <c r="O19" s="28"/>
       <c r="P19" s="28"/>
@@ -23636,25 +22147,17 @@
     </row>
     <row r="20" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B20" s="21"/>
-      <c r="C20" s="71">
-        <v>45518.727546296293</v>
-      </c>
-      <c r="D20" s="70">
-        <v>45518</v>
-      </c>
+      <c r="C20" s="56"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
-      <c r="G20" s="28" t="s">
-        <v>65</v>
-      </c>
+      <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
       <c r="L20" s="28"/>
-      <c r="M20" s="28">
-        <v>0</v>
-      </c>
+      <c r="M20" s="28"/>
       <c r="N20" s="28"/>
       <c r="O20" s="28"/>
       <c r="P20" s="28"/>
@@ -23687,8 +22190,8 @@
     </row>
     <row r="21" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B21" s="21"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="70"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
@@ -23730,8 +22233,8 @@
     </row>
     <row r="22" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B22" s="21"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="70"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
@@ -23773,8 +22276,8 @@
     </row>
     <row r="23" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B23" s="21"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="70"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
@@ -23816,8 +22319,8 @@
     </row>
     <row r="24" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B24" s="21"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="70"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
@@ -23859,8 +22362,8 @@
     </row>
     <row r="25" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B25" s="21"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="70"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
@@ -23902,8 +22405,8 @@
     </row>
     <row r="26" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B26" s="21"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="70"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
@@ -23945,8 +22448,8 @@
     </row>
     <row r="27" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B27" s="21"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="70"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
@@ -23988,8 +22491,8 @@
     </row>
     <row r="28" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B28" s="21"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="70"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
@@ -24031,8 +22534,8 @@
     </row>
     <row r="29" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B29" s="21"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="70"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
@@ -24074,8 +22577,8 @@
     </row>
     <row r="30" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B30" s="21"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="70"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
@@ -24117,8 +22620,8 @@
     </row>
     <row r="31" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B31" s="21"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="70"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
@@ -24160,8 +22663,8 @@
     </row>
     <row r="32" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B32" s="21"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="70"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="28"/>
@@ -24203,8 +22706,8 @@
     </row>
     <row r="33" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B33" s="21"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="70"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="55"/>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
@@ -24246,8 +22749,8 @@
     </row>
     <row r="34" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B34" s="21"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="70"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="55"/>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
@@ -24289,8 +22792,8 @@
     </row>
     <row r="35" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B35" s="21"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="70"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="55"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
       <c r="G35" s="28"/>
@@ -24332,8 +22835,8 @@
     </row>
     <row r="36" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B36" s="21"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="70"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="55"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
@@ -24375,8 +22878,8 @@
     </row>
     <row r="37" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B37" s="21"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="70"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="55"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
       <c r="G37" s="28"/>
@@ -24418,8 +22921,8 @@
     </row>
     <row r="38" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B38" s="21"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="70"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="55"/>
       <c r="E38" s="28"/>
       <c r="F38" s="28"/>
       <c r="G38" s="28"/>
@@ -24461,8 +22964,8 @@
     </row>
     <row r="39" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B39" s="21"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="70"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="55"/>
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
       <c r="G39" s="28"/>
@@ -24504,8 +23007,8 @@
     </row>
     <row r="40" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B40" s="21"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="70"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="55"/>
       <c r="E40" s="28"/>
       <c r="F40" s="28"/>
       <c r="G40" s="28"/>
@@ -24547,8 +23050,8 @@
     </row>
     <row r="41" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B41" s="21"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="70"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="55"/>
       <c r="E41" s="28"/>
       <c r="F41" s="28"/>
       <c r="G41" s="28"/>
@@ -24590,8 +23093,8 @@
     </row>
     <row r="42" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B42" s="21"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="70"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="55"/>
       <c r="E42" s="28"/>
       <c r="F42" s="28"/>
       <c r="G42" s="28"/>
@@ -24633,8 +23136,8 @@
     </row>
     <row r="43" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B43" s="21"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="70"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="55"/>
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
       <c r="G43" s="28"/>
@@ -24676,8 +23179,8 @@
     </row>
     <row r="44" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B44" s="21"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="70"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="55"/>
       <c r="E44" s="28"/>
       <c r="F44" s="28"/>
       <c r="G44" s="28"/>
@@ -24719,8 +23222,8 @@
     </row>
     <row r="45" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B45" s="21"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="70"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="55"/>
       <c r="E45" s="28"/>
       <c r="F45" s="28"/>
       <c r="G45" s="28"/>
@@ -24762,8 +23265,8 @@
     </row>
     <row r="46" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B46" s="21"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="70"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="55"/>
       <c r="E46" s="28"/>
       <c r="F46" s="28"/>
       <c r="G46" s="28"/>
@@ -24805,8 +23308,8 @@
     </row>
     <row r="47" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B47" s="21"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="70"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="55"/>
       <c r="E47" s="28"/>
       <c r="F47" s="28"/>
       <c r="G47" s="28"/>
@@ -24848,8 +23351,8 @@
     </row>
     <row r="48" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B48" s="21"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="70"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="55"/>
       <c r="E48" s="28"/>
       <c r="F48" s="28"/>
       <c r="G48" s="28"/>
@@ -24891,8 +23394,8 @@
     </row>
     <row r="49" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B49" s="21"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="70"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="55"/>
       <c r="E49" s="28"/>
       <c r="F49" s="28"/>
       <c r="G49" s="28"/>
@@ -24934,8 +23437,8 @@
     </row>
     <row r="50" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B50" s="21"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="70"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="55"/>
       <c r="E50" s="28"/>
       <c r="F50" s="28"/>
       <c r="G50" s="28"/>
@@ -24977,8 +23480,8 @@
     </row>
     <row r="51" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B51" s="21"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="70"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="55"/>
       <c r="E51" s="28"/>
       <c r="F51" s="28"/>
       <c r="G51" s="28"/>
@@ -25020,8 +23523,8 @@
     </row>
     <row r="52" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B52" s="21"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="70"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="55"/>
       <c r="E52" s="28"/>
       <c r="F52" s="28"/>
       <c r="G52" s="28"/>
@@ -25063,8 +23566,8 @@
     </row>
     <row r="53" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B53" s="21"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="70"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="55"/>
       <c r="E53" s="28"/>
       <c r="F53" s="28"/>
       <c r="G53" s="28"/>
@@ -25106,8 +23609,8 @@
     </row>
     <row r="54" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B54" s="21"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="70"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="55"/>
       <c r="E54" s="28"/>
       <c r="F54" s="28"/>
       <c r="G54" s="28"/>
@@ -25149,8 +23652,8 @@
     </row>
     <row r="55" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B55" s="21"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="70"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="55"/>
       <c r="E55" s="28"/>
       <c r="F55" s="28"/>
       <c r="G55" s="28"/>
@@ -25192,8 +23695,8 @@
     </row>
     <row r="56" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B56" s="21"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="70"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="55"/>
       <c r="E56" s="28"/>
       <c r="F56" s="28"/>
       <c r="G56" s="28"/>
@@ -25235,8 +23738,8 @@
     </row>
     <row r="57" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B57" s="21"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="70"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="55"/>
       <c r="E57" s="28"/>
       <c r="F57" s="28"/>
       <c r="G57" s="28"/>
@@ -25278,8 +23781,8 @@
     </row>
     <row r="58" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B58" s="21"/>
-      <c r="C58" s="71"/>
-      <c r="D58" s="70"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="55"/>
       <c r="E58" s="28"/>
       <c r="F58" s="28"/>
       <c r="G58" s="28"/>
@@ -25321,8 +23824,8 @@
     </row>
     <row r="59" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B59" s="21"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="70"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="55"/>
       <c r="E59" s="28"/>
       <c r="F59" s="28"/>
       <c r="G59" s="28"/>
@@ -25364,8 +23867,8 @@
     </row>
     <row r="60" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B60" s="21"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="70"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="55"/>
       <c r="E60" s="28"/>
       <c r="F60" s="28"/>
       <c r="G60" s="28"/>
@@ -25407,8 +23910,8 @@
     </row>
     <row r="61" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B61" s="21"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="70"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="55"/>
       <c r="E61" s="28"/>
       <c r="F61" s="28"/>
       <c r="G61" s="28"/>
@@ -25450,8 +23953,8 @@
     </row>
     <row r="62" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B62" s="21"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="70"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="55"/>
       <c r="E62" s="28"/>
       <c r="F62" s="28"/>
       <c r="G62" s="28"/>
@@ -25493,8 +23996,8 @@
     </row>
     <row r="63" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B63" s="21"/>
-      <c r="C63" s="71"/>
-      <c r="D63" s="70"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="55"/>
       <c r="E63" s="28"/>
       <c r="F63" s="28"/>
       <c r="G63" s="28"/>
@@ -25536,8 +24039,8 @@
     </row>
     <row r="64" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B64" s="21"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="70"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="55"/>
       <c r="E64" s="28"/>
       <c r="F64" s="28"/>
       <c r="G64" s="28"/>
@@ -25579,8 +24082,8 @@
     </row>
     <row r="65" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B65" s="21"/>
-      <c r="C65" s="71"/>
-      <c r="D65" s="70"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="55"/>
       <c r="E65" s="28"/>
       <c r="F65" s="28"/>
       <c r="G65" s="28"/>
@@ -25622,8 +24125,8 @@
     </row>
     <row r="66" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B66" s="21"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="70"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="55"/>
       <c r="E66" s="28"/>
       <c r="F66" s="28"/>
       <c r="G66" s="28"/>
@@ -25665,8 +24168,8 @@
     </row>
     <row r="67" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B67" s="21"/>
-      <c r="C67" s="71"/>
-      <c r="D67" s="70"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="55"/>
       <c r="E67" s="28"/>
       <c r="F67" s="28"/>
       <c r="G67" s="28"/>
@@ -25708,8 +24211,8 @@
     </row>
     <row r="68" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B68" s="21"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="70"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="55"/>
       <c r="E68" s="28"/>
       <c r="F68" s="28"/>
       <c r="G68" s="28"/>
@@ -25751,8 +24254,8 @@
     </row>
     <row r="69" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B69" s="21"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="70"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="55"/>
       <c r="E69" s="28"/>
       <c r="F69" s="28"/>
       <c r="G69" s="28"/>
@@ -25794,8 +24297,8 @@
     </row>
     <row r="70" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B70" s="21"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="70"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="55"/>
       <c r="E70" s="28"/>
       <c r="F70" s="28"/>
       <c r="G70" s="28"/>
@@ -25837,8 +24340,8 @@
     </row>
     <row r="71" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B71" s="21"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="70"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="55"/>
       <c r="E71" s="28"/>
       <c r="F71" s="28"/>
       <c r="G71" s="28"/>
@@ -25880,8 +24383,8 @@
     </row>
     <row r="72" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B72" s="21"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="70"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="55"/>
       <c r="E72" s="28"/>
       <c r="F72" s="28"/>
       <c r="G72" s="28"/>
@@ -25923,8 +24426,8 @@
     </row>
     <row r="73" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B73" s="21"/>
-      <c r="C73" s="71"/>
-      <c r="D73" s="70"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="55"/>
       <c r="E73" s="28"/>
       <c r="F73" s="28"/>
       <c r="G73" s="28"/>
@@ -25966,8 +24469,8 @@
     </row>
     <row r="74" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B74" s="21"/>
-      <c r="C74" s="71"/>
-      <c r="D74" s="70"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="55"/>
       <c r="E74" s="28"/>
       <c r="F74" s="28"/>
       <c r="G74" s="28"/>
@@ -26009,8 +24512,8 @@
     </row>
     <row r="75" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B75" s="21"/>
-      <c r="C75" s="71"/>
-      <c r="D75" s="70"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="55"/>
       <c r="E75" s="28"/>
       <c r="F75" s="28"/>
       <c r="G75" s="28"/>
@@ -26052,8 +24555,8 @@
     </row>
     <row r="76" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B76" s="21"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="70"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="55"/>
       <c r="E76" s="28"/>
       <c r="F76" s="28"/>
       <c r="G76" s="28"/>
@@ -26095,8 +24598,8 @@
     </row>
     <row r="77" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B77" s="21"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="70"/>
+      <c r="C77" s="56"/>
+      <c r="D77" s="55"/>
       <c r="E77" s="28"/>
       <c r="F77" s="28"/>
       <c r="G77" s="28"/>
@@ -26138,8 +24641,8 @@
     </row>
     <row r="78" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B78" s="21"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="70"/>
+      <c r="C78" s="56"/>
+      <c r="D78" s="55"/>
       <c r="E78" s="28"/>
       <c r="F78" s="28"/>
       <c r="G78" s="28"/>
@@ -26181,8 +24684,8 @@
     </row>
     <row r="79" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B79" s="21"/>
-      <c r="C79" s="71"/>
-      <c r="D79" s="70"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="55"/>
       <c r="E79" s="28"/>
       <c r="F79" s="28"/>
       <c r="G79" s="28"/>
@@ -26224,8 +24727,8 @@
     </row>
     <row r="80" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B80" s="21"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="70"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="55"/>
       <c r="E80" s="28"/>
       <c r="F80" s="28"/>
       <c r="G80" s="28"/>
@@ -26267,8 +24770,8 @@
     </row>
     <row r="81" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B81" s="21"/>
-      <c r="C81" s="71"/>
-      <c r="D81" s="70"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="55"/>
       <c r="E81" s="28"/>
       <c r="F81" s="28"/>
       <c r="G81" s="28"/>
@@ -26310,8 +24813,8 @@
     </row>
     <row r="82" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B82" s="21"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="70"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="55"/>
       <c r="E82" s="28"/>
       <c r="F82" s="28"/>
       <c r="G82" s="28"/>
@@ -26353,8 +24856,8 @@
     </row>
     <row r="83" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B83" s="21"/>
-      <c r="C83" s="71"/>
-      <c r="D83" s="70"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="55"/>
       <c r="E83" s="28"/>
       <c r="F83" s="28"/>
       <c r="G83" s="28"/>
@@ -26396,8 +24899,8 @@
     </row>
     <row r="84" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B84" s="21"/>
-      <c r="C84" s="71"/>
-      <c r="D84" s="70"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="55"/>
       <c r="E84" s="28"/>
       <c r="F84" s="28"/>
       <c r="G84" s="28"/>
@@ -26439,8 +24942,8 @@
     </row>
     <row r="85" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B85" s="21"/>
-      <c r="C85" s="71"/>
-      <c r="D85" s="70"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="55"/>
       <c r="E85" s="28"/>
       <c r="F85" s="28"/>
       <c r="G85" s="28"/>
@@ -26482,8 +24985,8 @@
     </row>
     <row r="86" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B86" s="21"/>
-      <c r="C86" s="71"/>
-      <c r="D86" s="70"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="55"/>
       <c r="E86" s="28"/>
       <c r="F86" s="28"/>
       <c r="G86" s="28"/>
@@ -26525,8 +25028,8 @@
     </row>
     <row r="87" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B87" s="21"/>
-      <c r="C87" s="71"/>
-      <c r="D87" s="70"/>
+      <c r="C87" s="56"/>
+      <c r="D87" s="55"/>
       <c r="E87" s="28"/>
       <c r="F87" s="28"/>
       <c r="G87" s="28"/>
@@ -26568,8 +25071,8 @@
     </row>
     <row r="88" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B88" s="21"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="70"/>
+      <c r="C88" s="56"/>
+      <c r="D88" s="55"/>
       <c r="E88" s="28"/>
       <c r="F88" s="28"/>
       <c r="G88" s="28"/>
@@ -26611,8 +25114,8 @@
     </row>
     <row r="89" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B89" s="21"/>
-      <c r="C89" s="71"/>
-      <c r="D89" s="70"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="55"/>
       <c r="E89" s="28"/>
       <c r="F89" s="28"/>
       <c r="G89" s="28"/>
@@ -26654,8 +25157,8 @@
     </row>
     <row r="90" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B90" s="21"/>
-      <c r="C90" s="71"/>
-      <c r="D90" s="70"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="55"/>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
       <c r="G90" s="28"/>
@@ -26697,8 +25200,8 @@
     </row>
     <row r="91" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B91" s="21"/>
-      <c r="C91" s="71"/>
-      <c r="D91" s="70"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="55"/>
       <c r="E91" s="28"/>
       <c r="F91" s="28"/>
       <c r="G91" s="28"/>
@@ -26740,8 +25243,8 @@
     </row>
     <row r="92" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B92" s="21"/>
-      <c r="C92" s="71"/>
-      <c r="D92" s="70"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="55"/>
       <c r="E92" s="28"/>
       <c r="F92" s="28"/>
       <c r="G92" s="28"/>
@@ -26783,8 +25286,8 @@
     </row>
     <row r="93" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B93" s="21"/>
-      <c r="C93" s="71"/>
-      <c r="D93" s="70"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="55"/>
       <c r="E93" s="28"/>
       <c r="F93" s="28"/>
       <c r="G93" s="28"/>
@@ -26826,8 +25329,8 @@
     </row>
     <row r="94" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B94" s="21"/>
-      <c r="C94" s="71"/>
-      <c r="D94" s="70"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="55"/>
       <c r="E94" s="28"/>
       <c r="F94" s="28"/>
       <c r="G94" s="28"/>
@@ -26869,8 +25372,8 @@
     </row>
     <row r="95" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B95" s="21"/>
-      <c r="C95" s="71"/>
-      <c r="D95" s="70"/>
+      <c r="C95" s="56"/>
+      <c r="D95" s="55"/>
       <c r="E95" s="28"/>
       <c r="F95" s="28"/>
       <c r="G95" s="28"/>
@@ -26912,8 +25415,8 @@
     </row>
     <row r="96" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B96" s="21"/>
-      <c r="C96" s="71"/>
-      <c r="D96" s="70"/>
+      <c r="C96" s="56"/>
+      <c r="D96" s="55"/>
       <c r="E96" s="28"/>
       <c r="F96" s="28"/>
       <c r="G96" s="28"/>
@@ -26955,8 +25458,8 @@
     </row>
     <row r="97" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B97" s="21"/>
-      <c r="C97" s="71"/>
-      <c r="D97" s="70"/>
+      <c r="C97" s="56"/>
+      <c r="D97" s="55"/>
       <c r="E97" s="28"/>
       <c r="F97" s="28"/>
       <c r="G97" s="28"/>
@@ -26998,8 +25501,8 @@
     </row>
     <row r="98" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B98" s="21"/>
-      <c r="C98" s="71"/>
-      <c r="D98" s="70"/>
+      <c r="C98" s="56"/>
+      <c r="D98" s="55"/>
       <c r="E98" s="28"/>
       <c r="F98" s="28"/>
       <c r="G98" s="28"/>
@@ -27041,8 +25544,8 @@
     </row>
     <row r="99" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B99" s="21"/>
-      <c r="C99" s="71"/>
-      <c r="D99" s="70"/>
+      <c r="C99" s="56"/>
+      <c r="D99" s="55"/>
       <c r="E99" s="28"/>
       <c r="F99" s="28"/>
       <c r="G99" s="28"/>
@@ -27084,8 +25587,8 @@
     </row>
     <row r="100" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B100" s="21"/>
-      <c r="C100" s="71"/>
-      <c r="D100" s="70"/>
+      <c r="C100" s="56"/>
+      <c r="D100" s="55"/>
       <c r="E100" s="28"/>
       <c r="F100" s="28"/>
       <c r="G100" s="28"/>
@@ -27127,8 +25630,8 @@
     </row>
     <row r="101" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B101" s="21"/>
-      <c r="C101" s="71"/>
-      <c r="D101" s="70"/>
+      <c r="C101" s="56"/>
+      <c r="D101" s="55"/>
       <c r="E101" s="28"/>
       <c r="F101" s="28"/>
       <c r="G101" s="28"/>
@@ -27170,8 +25673,8 @@
     </row>
     <row r="102" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B102" s="21"/>
-      <c r="C102" s="71"/>
-      <c r="D102" s="70"/>
+      <c r="C102" s="56"/>
+      <c r="D102" s="55"/>
       <c r="E102" s="28"/>
       <c r="F102" s="28"/>
       <c r="G102" s="28"/>
@@ -27213,8 +25716,8 @@
     </row>
     <row r="103" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B103" s="21"/>
-      <c r="C103" s="71"/>
-      <c r="D103" s="70"/>
+      <c r="C103" s="56"/>
+      <c r="D103" s="55"/>
       <c r="E103" s="28"/>
       <c r="F103" s="28"/>
       <c r="G103" s="28"/>
@@ -27256,8 +25759,8 @@
     </row>
     <row r="104" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B104" s="21"/>
-      <c r="C104" s="71"/>
-      <c r="D104" s="70"/>
+      <c r="C104" s="56"/>
+      <c r="D104" s="55"/>
       <c r="E104" s="28"/>
       <c r="F104" s="28"/>
       <c r="G104" s="28"/>
@@ -27299,8 +25802,8 @@
     </row>
     <row r="105" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B105" s="21"/>
-      <c r="C105" s="71"/>
-      <c r="D105" s="70"/>
+      <c r="C105" s="56"/>
+      <c r="D105" s="55"/>
       <c r="E105" s="28"/>
       <c r="F105" s="28"/>
       <c r="G105" s="28"/>
@@ -27342,8 +25845,8 @@
     </row>
     <row r="106" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B106" s="21"/>
-      <c r="C106" s="71"/>
-      <c r="D106" s="70"/>
+      <c r="C106" s="56"/>
+      <c r="D106" s="55"/>
       <c r="E106" s="28"/>
       <c r="F106" s="28"/>
       <c r="G106" s="28"/>
@@ -27385,8 +25888,8 @@
     </row>
     <row r="107" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B107" s="21"/>
-      <c r="C107" s="71"/>
-      <c r="D107" s="70"/>
+      <c r="C107" s="56"/>
+      <c r="D107" s="55"/>
       <c r="E107" s="28"/>
       <c r="F107" s="28"/>
       <c r="G107" s="28"/>
@@ -27428,8 +25931,8 @@
     </row>
     <row r="108" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B108" s="21"/>
-      <c r="C108" s="71"/>
-      <c r="D108" s="70"/>
+      <c r="C108" s="56"/>
+      <c r="D108" s="55"/>
       <c r="E108" s="28"/>
       <c r="F108" s="28"/>
       <c r="G108" s="28"/>
@@ -27471,8 +25974,8 @@
     </row>
     <row r="109" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B109" s="21"/>
-      <c r="C109" s="71"/>
-      <c r="D109" s="70"/>
+      <c r="C109" s="56"/>
+      <c r="D109" s="55"/>
       <c r="E109" s="28"/>
       <c r="F109" s="28"/>
       <c r="G109" s="28"/>
@@ -27514,8 +26017,8 @@
     </row>
     <row r="110" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B110" s="21"/>
-      <c r="C110" s="71"/>
-      <c r="D110" s="70"/>
+      <c r="C110" s="56"/>
+      <c r="D110" s="55"/>
       <c r="E110" s="28"/>
       <c r="F110" s="28"/>
       <c r="G110" s="28"/>
@@ -27557,8 +26060,8 @@
     </row>
     <row r="111" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B111" s="21"/>
-      <c r="C111" s="71"/>
-      <c r="D111" s="70"/>
+      <c r="C111" s="56"/>
+      <c r="D111" s="55"/>
       <c r="E111" s="28"/>
       <c r="F111" s="28"/>
       <c r="G111" s="28"/>
@@ -27600,8 +26103,8 @@
     </row>
     <row r="112" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B112" s="21"/>
-      <c r="C112" s="71"/>
-      <c r="D112" s="70"/>
+      <c r="C112" s="56"/>
+      <c r="D112" s="55"/>
       <c r="E112" s="28"/>
       <c r="F112" s="28"/>
       <c r="G112" s="28"/>
@@ -27643,8 +26146,8 @@
     </row>
     <row r="113" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B113" s="21"/>
-      <c r="C113" s="71"/>
-      <c r="D113" s="70"/>
+      <c r="C113" s="56"/>
+      <c r="D113" s="55"/>
       <c r="E113" s="28"/>
       <c r="F113" s="28"/>
       <c r="G113" s="28"/>
@@ -27686,8 +26189,8 @@
     </row>
     <row r="114" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B114" s="21"/>
-      <c r="C114" s="71"/>
-      <c r="D114" s="70"/>
+      <c r="C114" s="56"/>
+      <c r="D114" s="55"/>
       <c r="E114" s="28"/>
       <c r="F114" s="28"/>
       <c r="G114" s="28"/>
@@ -27729,8 +26232,8 @@
     </row>
     <row r="115" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B115" s="21"/>
-      <c r="C115" s="71"/>
-      <c r="D115" s="70"/>
+      <c r="C115" s="56"/>
+      <c r="D115" s="55"/>
       <c r="E115" s="28"/>
       <c r="F115" s="28"/>
       <c r="G115" s="28"/>
@@ -27772,8 +26275,8 @@
     </row>
     <row r="116" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B116" s="21"/>
-      <c r="C116" s="71"/>
-      <c r="D116" s="70"/>
+      <c r="C116" s="56"/>
+      <c r="D116" s="55"/>
       <c r="E116" s="28"/>
       <c r="F116" s="28"/>
       <c r="G116" s="28"/>
@@ -27815,8 +26318,8 @@
     </row>
     <row r="117" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B117" s="21"/>
-      <c r="C117" s="71"/>
-      <c r="D117" s="70"/>
+      <c r="C117" s="56"/>
+      <c r="D117" s="55"/>
       <c r="E117" s="28"/>
       <c r="F117" s="28"/>
       <c r="G117" s="28"/>
@@ -27858,8 +26361,8 @@
     </row>
     <row r="118" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B118" s="21"/>
-      <c r="C118" s="71"/>
-      <c r="D118" s="70"/>
+      <c r="C118" s="56"/>
+      <c r="D118" s="55"/>
       <c r="E118" s="28"/>
       <c r="F118" s="28"/>
       <c r="G118" s="28"/>
@@ -27901,8 +26404,8 @@
     </row>
     <row r="119" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B119" s="21"/>
-      <c r="C119" s="71"/>
-      <c r="D119" s="70"/>
+      <c r="C119" s="56"/>
+      <c r="D119" s="55"/>
       <c r="E119" s="28"/>
       <c r="F119" s="28"/>
       <c r="G119" s="28"/>
@@ -27944,8 +26447,8 @@
     </row>
     <row r="120" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B120" s="21"/>
-      <c r="C120" s="71"/>
-      <c r="D120" s="70"/>
+      <c r="C120" s="56"/>
+      <c r="D120" s="55"/>
       <c r="E120" s="28"/>
       <c r="F120" s="28"/>
       <c r="G120" s="28"/>
@@ -27987,8 +26490,8 @@
     </row>
     <row r="121" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B121" s="21"/>
-      <c r="C121" s="71"/>
-      <c r="D121" s="70"/>
+      <c r="C121" s="56"/>
+      <c r="D121" s="55"/>
       <c r="E121" s="28"/>
       <c r="F121" s="28"/>
       <c r="G121" s="28"/>
@@ -28030,8 +26533,8 @@
     </row>
     <row r="122" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B122" s="21"/>
-      <c r="C122" s="71"/>
-      <c r="D122" s="70"/>
+      <c r="C122" s="56"/>
+      <c r="D122" s="55"/>
       <c r="E122" s="28"/>
       <c r="F122" s="28"/>
       <c r="G122" s="28"/>
@@ -28073,8 +26576,8 @@
     </row>
     <row r="123" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B123" s="21"/>
-      <c r="C123" s="71"/>
-      <c r="D123" s="70"/>
+      <c r="C123" s="56"/>
+      <c r="D123" s="55"/>
       <c r="E123" s="28"/>
       <c r="F123" s="28"/>
       <c r="G123" s="28"/>
@@ -28116,8 +26619,8 @@
     </row>
     <row r="124" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B124" s="21"/>
-      <c r="C124" s="71"/>
-      <c r="D124" s="70"/>
+      <c r="C124" s="56"/>
+      <c r="D124" s="55"/>
       <c r="E124" s="28"/>
       <c r="F124" s="28"/>
       <c r="G124" s="28"/>
@@ -28159,8 +26662,8 @@
     </row>
     <row r="125" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B125" s="21"/>
-      <c r="C125" s="71"/>
-      <c r="D125" s="70"/>
+      <c r="C125" s="56"/>
+      <c r="D125" s="55"/>
       <c r="E125" s="28"/>
       <c r="F125" s="28"/>
       <c r="G125" s="28"/>
@@ -28202,8 +26705,8 @@
     </row>
     <row r="126" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B126" s="21"/>
-      <c r="C126" s="71"/>
-      <c r="D126" s="70"/>
+      <c r="C126" s="56"/>
+      <c r="D126" s="55"/>
       <c r="E126" s="28"/>
       <c r="F126" s="28"/>
       <c r="G126" s="28"/>
@@ -28245,8 +26748,8 @@
     </row>
     <row r="127" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B127" s="21"/>
-      <c r="C127" s="71"/>
-      <c r="D127" s="70"/>
+      <c r="C127" s="56"/>
+      <c r="D127" s="55"/>
       <c r="E127" s="28"/>
       <c r="F127" s="28"/>
       <c r="G127" s="28"/>
@@ -28288,8 +26791,8 @@
     </row>
     <row r="128" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B128" s="21"/>
-      <c r="C128" s="71"/>
-      <c r="D128" s="70"/>
+      <c r="C128" s="56"/>
+      <c r="D128" s="55"/>
       <c r="E128" s="28"/>
       <c r="F128" s="28"/>
       <c r="G128" s="28"/>
@@ -28331,8 +26834,8 @@
     </row>
     <row r="129" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B129" s="21"/>
-      <c r="C129" s="71"/>
-      <c r="D129" s="70"/>
+      <c r="C129" s="56"/>
+      <c r="D129" s="55"/>
       <c r="E129" s="28"/>
       <c r="F129" s="28"/>
       <c r="G129" s="28"/>
@@ -28374,8 +26877,8 @@
     </row>
     <row r="130" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B130" s="21"/>
-      <c r="C130" s="71"/>
-      <c r="D130" s="70"/>
+      <c r="C130" s="56"/>
+      <c r="D130" s="55"/>
       <c r="E130" s="28"/>
       <c r="F130" s="28"/>
       <c r="G130" s="28"/>
@@ -28417,8 +26920,8 @@
     </row>
     <row r="131" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B131" s="21"/>
-      <c r="C131" s="71"/>
-      <c r="D131" s="70"/>
+      <c r="C131" s="56"/>
+      <c r="D131" s="55"/>
       <c r="E131" s="28"/>
       <c r="F131" s="28"/>
       <c r="G131" s="28"/>
@@ -28460,8 +26963,8 @@
     </row>
     <row r="132" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B132" s="21"/>
-      <c r="C132" s="71"/>
-      <c r="D132" s="70"/>
+      <c r="C132" s="56"/>
+      <c r="D132" s="55"/>
       <c r="E132" s="28"/>
       <c r="F132" s="28"/>
       <c r="G132" s="28"/>
@@ -28503,8 +27006,8 @@
     </row>
     <row r="133" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B133" s="21"/>
-      <c r="C133" s="71"/>
-      <c r="D133" s="70"/>
+      <c r="C133" s="56"/>
+      <c r="D133" s="55"/>
       <c r="E133" s="28"/>
       <c r="F133" s="28"/>
       <c r="G133" s="28"/>
@@ -28546,8 +27049,8 @@
     </row>
     <row r="134" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B134" s="21"/>
-      <c r="C134" s="71"/>
-      <c r="D134" s="70"/>
+      <c r="C134" s="56"/>
+      <c r="D134" s="55"/>
       <c r="E134" s="28"/>
       <c r="F134" s="28"/>
       <c r="G134" s="28"/>
@@ -28589,8 +27092,8 @@
     </row>
     <row r="135" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B135" s="21"/>
-      <c r="C135" s="71"/>
-      <c r="D135" s="70"/>
+      <c r="C135" s="56"/>
+      <c r="D135" s="55"/>
       <c r="E135" s="28"/>
       <c r="F135" s="28"/>
       <c r="G135" s="28"/>
@@ -28632,8 +27135,8 @@
     </row>
     <row r="136" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B136" s="21"/>
-      <c r="C136" s="71"/>
-      <c r="D136" s="70"/>
+      <c r="C136" s="56"/>
+      <c r="D136" s="55"/>
       <c r="E136" s="28"/>
       <c r="F136" s="28"/>
       <c r="G136" s="28"/>
@@ -28675,8 +27178,8 @@
     </row>
     <row r="137" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B137" s="21"/>
-      <c r="C137" s="71"/>
-      <c r="D137" s="70"/>
+      <c r="C137" s="56"/>
+      <c r="D137" s="55"/>
       <c r="E137" s="28"/>
       <c r="F137" s="28"/>
       <c r="G137" s="28"/>
@@ -28718,8 +27221,8 @@
     </row>
     <row r="138" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B138" s="21"/>
-      <c r="C138" s="71"/>
-      <c r="D138" s="70"/>
+      <c r="C138" s="56"/>
+      <c r="D138" s="55"/>
       <c r="E138" s="28"/>
       <c r="F138" s="28"/>
       <c r="G138" s="28"/>
@@ -28761,8 +27264,8 @@
     </row>
     <row r="139" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B139" s="21"/>
-      <c r="C139" s="71"/>
-      <c r="D139" s="70"/>
+      <c r="C139" s="56"/>
+      <c r="D139" s="55"/>
       <c r="E139" s="28"/>
       <c r="F139" s="28"/>
       <c r="G139" s="28"/>
@@ -28804,8 +27307,8 @@
     </row>
     <row r="140" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B140" s="21"/>
-      <c r="C140" s="71"/>
-      <c r="D140" s="70"/>
+      <c r="C140" s="56"/>
+      <c r="D140" s="55"/>
       <c r="E140" s="28"/>
       <c r="F140" s="28"/>
       <c r="G140" s="28"/>
@@ -28847,8 +27350,8 @@
     </row>
     <row r="141" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B141" s="21"/>
-      <c r="C141" s="71"/>
-      <c r="D141" s="70"/>
+      <c r="C141" s="56"/>
+      <c r="D141" s="55"/>
       <c r="E141" s="28"/>
       <c r="F141" s="28"/>
       <c r="G141" s="28"/>
@@ -28890,8 +27393,8 @@
     </row>
     <row r="142" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B142" s="21"/>
-      <c r="C142" s="71"/>
-      <c r="D142" s="70"/>
+      <c r="C142" s="56"/>
+      <c r="D142" s="55"/>
       <c r="E142" s="28"/>
       <c r="F142" s="28"/>
       <c r="G142" s="28"/>
@@ -28933,8 +27436,8 @@
     </row>
     <row r="143" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B143" s="21"/>
-      <c r="C143" s="71"/>
-      <c r="D143" s="70"/>
+      <c r="C143" s="56"/>
+      <c r="D143" s="55"/>
       <c r="E143" s="28"/>
       <c r="F143" s="28"/>
       <c r="G143" s="28"/>
@@ -28976,8 +27479,8 @@
     </row>
     <row r="144" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B144" s="21"/>
-      <c r="C144" s="71"/>
-      <c r="D144" s="70"/>
+      <c r="C144" s="56"/>
+      <c r="D144" s="55"/>
       <c r="E144" s="28"/>
       <c r="F144" s="28"/>
       <c r="G144" s="28"/>
@@ -29019,8 +27522,8 @@
     </row>
     <row r="145" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B145" s="21"/>
-      <c r="C145" s="71"/>
-      <c r="D145" s="70"/>
+      <c r="C145" s="56"/>
+      <c r="D145" s="55"/>
       <c r="E145" s="28"/>
       <c r="F145" s="28"/>
       <c r="G145" s="28"/>
@@ -29062,8 +27565,8 @@
     </row>
     <row r="146" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B146" s="21"/>
-      <c r="C146" s="71"/>
-      <c r="D146" s="70"/>
+      <c r="C146" s="56"/>
+      <c r="D146" s="55"/>
       <c r="E146" s="28"/>
       <c r="F146" s="28"/>
       <c r="G146" s="28"/>
@@ -29105,8 +27608,8 @@
     </row>
     <row r="147" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B147" s="21"/>
-      <c r="C147" s="71"/>
-      <c r="D147" s="70"/>
+      <c r="C147" s="56"/>
+      <c r="D147" s="55"/>
       <c r="E147" s="28"/>
       <c r="F147" s="28"/>
       <c r="G147" s="28"/>
@@ -29148,8 +27651,8 @@
     </row>
     <row r="148" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B148" s="21"/>
-      <c r="C148" s="71"/>
-      <c r="D148" s="70"/>
+      <c r="C148" s="56"/>
+      <c r="D148" s="55"/>
       <c r="E148" s="28"/>
       <c r="F148" s="28"/>
       <c r="G148" s="28"/>
@@ -29191,8 +27694,8 @@
     </row>
     <row r="149" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B149" s="21"/>
-      <c r="C149" s="71"/>
-      <c r="D149" s="70"/>
+      <c r="C149" s="56"/>
+      <c r="D149" s="55"/>
       <c r="E149" s="28"/>
       <c r="F149" s="28"/>
       <c r="G149" s="28"/>
@@ -29234,8 +27737,8 @@
     </row>
     <row r="150" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B150" s="21"/>
-      <c r="C150" s="71"/>
-      <c r="D150" s="70"/>
+      <c r="C150" s="56"/>
+      <c r="D150" s="55"/>
       <c r="E150" s="28"/>
       <c r="F150" s="28"/>
       <c r="G150" s="28"/>
@@ -29277,8 +27780,8 @@
     </row>
     <row r="151" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B151" s="21"/>
-      <c r="C151" s="71"/>
-      <c r="D151" s="70"/>
+      <c r="C151" s="56"/>
+      <c r="D151" s="55"/>
       <c r="E151" s="28"/>
       <c r="F151" s="28"/>
       <c r="G151" s="28"/>
@@ -29320,8 +27823,8 @@
     </row>
     <row r="152" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B152" s="21"/>
-      <c r="C152" s="71"/>
-      <c r="D152" s="70"/>
+      <c r="C152" s="56"/>
+      <c r="D152" s="55"/>
       <c r="E152" s="28"/>
       <c r="F152" s="28"/>
       <c r="G152" s="28"/>
@@ -29363,8 +27866,8 @@
     </row>
     <row r="153" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B153" s="21"/>
-      <c r="C153" s="71"/>
-      <c r="D153" s="70"/>
+      <c r="C153" s="56"/>
+      <c r="D153" s="55"/>
       <c r="E153" s="28"/>
       <c r="F153" s="28"/>
       <c r="G153" s="28"/>
@@ -29406,8 +27909,8 @@
     </row>
     <row r="154" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B154" s="21"/>
-      <c r="C154" s="71"/>
-      <c r="D154" s="70"/>
+      <c r="C154" s="56"/>
+      <c r="D154" s="55"/>
       <c r="E154" s="28"/>
       <c r="F154" s="28"/>
       <c r="G154" s="28"/>
@@ -29449,8 +27952,8 @@
     </row>
     <row r="155" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B155" s="21"/>
-      <c r="C155" s="71"/>
-      <c r="D155" s="70"/>
+      <c r="C155" s="56"/>
+      <c r="D155" s="55"/>
       <c r="E155" s="28"/>
       <c r="F155" s="28"/>
       <c r="G155" s="28"/>
@@ -29492,8 +27995,8 @@
     </row>
     <row r="156" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B156" s="21"/>
-      <c r="C156" s="71"/>
-      <c r="D156" s="70"/>
+      <c r="C156" s="56"/>
+      <c r="D156" s="55"/>
       <c r="E156" s="28"/>
       <c r="F156" s="28"/>
       <c r="G156" s="28"/>
@@ -29535,8 +28038,8 @@
     </row>
     <row r="157" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B157" s="21"/>
-      <c r="C157" s="71"/>
-      <c r="D157" s="70"/>
+      <c r="C157" s="56"/>
+      <c r="D157" s="55"/>
       <c r="E157" s="28"/>
       <c r="F157" s="28"/>
       <c r="G157" s="28"/>
@@ -29578,8 +28081,8 @@
     </row>
     <row r="158" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B158" s="21"/>
-      <c r="C158" s="71"/>
-      <c r="D158" s="70"/>
+      <c r="C158" s="56"/>
+      <c r="D158" s="55"/>
       <c r="E158" s="28"/>
       <c r="F158" s="28"/>
       <c r="G158" s="28"/>
@@ -29621,8 +28124,8 @@
     </row>
     <row r="159" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B159" s="21"/>
-      <c r="C159" s="71"/>
-      <c r="D159" s="70"/>
+      <c r="C159" s="56"/>
+      <c r="D159" s="55"/>
       <c r="E159" s="28"/>
       <c r="F159" s="28"/>
       <c r="G159" s="28"/>
@@ -29664,8 +28167,8 @@
     </row>
     <row r="160" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B160" s="21"/>
-      <c r="C160" s="71"/>
-      <c r="D160" s="70"/>
+      <c r="C160" s="56"/>
+      <c r="D160" s="55"/>
       <c r="E160" s="28"/>
       <c r="F160" s="28"/>
       <c r="G160" s="28"/>
@@ -29707,8 +28210,8 @@
     </row>
     <row r="161" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B161" s="21"/>
-      <c r="C161" s="71"/>
-      <c r="D161" s="70"/>
+      <c r="C161" s="56"/>
+      <c r="D161" s="55"/>
       <c r="E161" s="28"/>
       <c r="F161" s="28"/>
       <c r="G161" s="28"/>
@@ -29750,8 +28253,8 @@
     </row>
     <row r="162" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B162" s="21"/>
-      <c r="C162" s="71"/>
-      <c r="D162" s="70"/>
+      <c r="C162" s="56"/>
+      <c r="D162" s="55"/>
       <c r="E162" s="28"/>
       <c r="F162" s="28"/>
       <c r="G162" s="28"/>
@@ -29793,8 +28296,8 @@
     </row>
     <row r="163" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B163" s="21"/>
-      <c r="C163" s="71"/>
-      <c r="D163" s="70"/>
+      <c r="C163" s="56"/>
+      <c r="D163" s="55"/>
       <c r="E163" s="28"/>
       <c r="F163" s="28"/>
       <c r="G163" s="28"/>
@@ -29836,8 +28339,8 @@
     </row>
     <row r="164" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B164" s="21"/>
-      <c r="C164" s="71"/>
-      <c r="D164" s="70"/>
+      <c r="C164" s="56"/>
+      <c r="D164" s="55"/>
       <c r="E164" s="28"/>
       <c r="F164" s="28"/>
       <c r="G164" s="28"/>
@@ -29879,8 +28382,8 @@
     </row>
     <row r="165" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B165" s="21"/>
-      <c r="C165" s="71"/>
-      <c r="D165" s="70"/>
+      <c r="C165" s="56"/>
+      <c r="D165" s="55"/>
       <c r="E165" s="28"/>
       <c r="F165" s="28"/>
       <c r="G165" s="28"/>
@@ -29922,8 +28425,8 @@
     </row>
     <row r="166" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B166" s="21"/>
-      <c r="C166" s="71"/>
-      <c r="D166" s="70"/>
+      <c r="C166" s="56"/>
+      <c r="D166" s="55"/>
       <c r="E166" s="28"/>
       <c r="F166" s="28"/>
       <c r="G166" s="28"/>
@@ -29965,8 +28468,8 @@
     </row>
     <row r="167" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B167" s="21"/>
-      <c r="C167" s="71"/>
-      <c r="D167" s="70"/>
+      <c r="C167" s="56"/>
+      <c r="D167" s="55"/>
       <c r="E167" s="28"/>
       <c r="F167" s="28"/>
       <c r="G167" s="28"/>
@@ -30008,8 +28511,8 @@
     </row>
     <row r="168" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B168" s="21"/>
-      <c r="C168" s="71"/>
-      <c r="D168" s="70"/>
+      <c r="C168" s="56"/>
+      <c r="D168" s="55"/>
       <c r="E168" s="28"/>
       <c r="F168" s="28"/>
       <c r="G168" s="28"/>
@@ -30051,8 +28554,8 @@
     </row>
     <row r="169" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B169" s="21"/>
-      <c r="C169" s="71"/>
-      <c r="D169" s="70"/>
+      <c r="C169" s="56"/>
+      <c r="D169" s="55"/>
       <c r="E169" s="28"/>
       <c r="F169" s="28"/>
       <c r="G169" s="28"/>
@@ -30094,8 +28597,8 @@
     </row>
     <row r="170" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B170" s="21"/>
-      <c r="C170" s="71"/>
-      <c r="D170" s="70"/>
+      <c r="C170" s="56"/>
+      <c r="D170" s="55"/>
       <c r="E170" s="28"/>
       <c r="F170" s="28"/>
       <c r="G170" s="28"/>
@@ -30137,8 +28640,8 @@
     </row>
     <row r="171" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B171" s="21"/>
-      <c r="C171" s="71"/>
-      <c r="D171" s="70"/>
+      <c r="C171" s="56"/>
+      <c r="D171" s="55"/>
       <c r="E171" s="28"/>
       <c r="F171" s="28"/>
       <c r="G171" s="28"/>
@@ -30180,8 +28683,8 @@
     </row>
     <row r="172" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B172" s="21"/>
-      <c r="C172" s="71"/>
-      <c r="D172" s="70"/>
+      <c r="C172" s="56"/>
+      <c r="D172" s="55"/>
       <c r="E172" s="28"/>
       <c r="F172" s="28"/>
       <c r="G172" s="28"/>
@@ -30223,8 +28726,8 @@
     </row>
     <row r="173" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B173" s="21"/>
-      <c r="C173" s="71"/>
-      <c r="D173" s="70"/>
+      <c r="C173" s="56"/>
+      <c r="D173" s="55"/>
       <c r="E173" s="28"/>
       <c r="F173" s="28"/>
       <c r="G173" s="28"/>
@@ -30266,8 +28769,8 @@
     </row>
     <row r="174" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B174" s="21"/>
-      <c r="C174" s="71"/>
-      <c r="D174" s="70"/>
+      <c r="C174" s="56"/>
+      <c r="D174" s="55"/>
       <c r="E174" s="28"/>
       <c r="F174" s="28"/>
       <c r="G174" s="28"/>
@@ -30309,8 +28812,8 @@
     </row>
     <row r="175" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B175" s="21"/>
-      <c r="C175" s="71"/>
-      <c r="D175" s="70"/>
+      <c r="C175" s="56"/>
+      <c r="D175" s="55"/>
       <c r="E175" s="28"/>
       <c r="F175" s="28"/>
       <c r="G175" s="28"/>
@@ -30352,8 +28855,8 @@
     </row>
     <row r="176" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B176" s="21"/>
-      <c r="C176" s="71"/>
-      <c r="D176" s="70"/>
+      <c r="C176" s="56"/>
+      <c r="D176" s="55"/>
       <c r="E176" s="28"/>
       <c r="F176" s="28"/>
       <c r="G176" s="28"/>
@@ -30395,8 +28898,8 @@
     </row>
     <row r="177" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B177" s="21"/>
-      <c r="C177" s="71"/>
-      <c r="D177" s="70"/>
+      <c r="C177" s="56"/>
+      <c r="D177" s="55"/>
       <c r="E177" s="28"/>
       <c r="F177" s="28"/>
       <c r="G177" s="28"/>
@@ -30438,8 +28941,8 @@
     </row>
     <row r="178" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B178" s="21"/>
-      <c r="C178" s="71"/>
-      <c r="D178" s="70"/>
+      <c r="C178" s="56"/>
+      <c r="D178" s="55"/>
       <c r="E178" s="28"/>
       <c r="F178" s="28"/>
       <c r="G178" s="28"/>
@@ -30481,8 +28984,8 @@
     </row>
     <row r="179" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B179" s="21"/>
-      <c r="C179" s="71"/>
-      <c r="D179" s="70"/>
+      <c r="C179" s="56"/>
+      <c r="D179" s="55"/>
       <c r="E179" s="28"/>
       <c r="F179" s="28"/>
       <c r="G179" s="28"/>
@@ -30524,8 +29027,8 @@
     </row>
     <row r="180" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B180" s="21"/>
-      <c r="C180" s="71"/>
-      <c r="D180" s="70"/>
+      <c r="C180" s="56"/>
+      <c r="D180" s="55"/>
       <c r="E180" s="28"/>
       <c r="F180" s="28"/>
       <c r="G180" s="28"/>
@@ -30567,8 +29070,8 @@
     </row>
     <row r="181" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B181" s="21"/>
-      <c r="C181" s="71"/>
-      <c r="D181" s="70"/>
+      <c r="C181" s="56"/>
+      <c r="D181" s="55"/>
       <c r="E181" s="28"/>
       <c r="F181" s="28"/>
       <c r="G181" s="28"/>
@@ -30610,8 +29113,8 @@
     </row>
     <row r="182" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B182" s="21"/>
-      <c r="C182" s="71"/>
-      <c r="D182" s="70"/>
+      <c r="C182" s="56"/>
+      <c r="D182" s="55"/>
       <c r="E182" s="28"/>
       <c r="F182" s="28"/>
       <c r="G182" s="28"/>
@@ -30653,8 +29156,8 @@
     </row>
     <row r="183" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B183" s="21"/>
-      <c r="C183" s="71"/>
-      <c r="D183" s="70"/>
+      <c r="C183" s="56"/>
+      <c r="D183" s="55"/>
       <c r="E183" s="28"/>
       <c r="F183" s="28"/>
       <c r="G183" s="28"/>
@@ -30696,8 +29199,8 @@
     </row>
     <row r="184" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B184" s="21"/>
-      <c r="C184" s="71"/>
-      <c r="D184" s="70"/>
+      <c r="C184" s="56"/>
+      <c r="D184" s="55"/>
       <c r="E184" s="28"/>
       <c r="F184" s="28"/>
       <c r="G184" s="28"/>
@@ -30739,8 +29242,8 @@
     </row>
     <row r="185" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B185" s="21"/>
-      <c r="C185" s="71"/>
-      <c r="D185" s="70"/>
+      <c r="C185" s="56"/>
+      <c r="D185" s="55"/>
       <c r="E185" s="28"/>
       <c r="F185" s="28"/>
       <c r="G185" s="28"/>
@@ -30782,8 +29285,8 @@
     </row>
     <row r="186" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B186" s="21"/>
-      <c r="C186" s="71"/>
-      <c r="D186" s="70"/>
+      <c r="C186" s="56"/>
+      <c r="D186" s="55"/>
       <c r="E186" s="28"/>
       <c r="F186" s="28"/>
       <c r="G186" s="28"/>
@@ -30825,8 +29328,8 @@
     </row>
     <row r="187" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B187" s="21"/>
-      <c r="C187" s="71"/>
-      <c r="D187" s="70"/>
+      <c r="C187" s="56"/>
+      <c r="D187" s="55"/>
       <c r="E187" s="28"/>
       <c r="F187" s="28"/>
       <c r="G187" s="28"/>
@@ -30868,8 +29371,8 @@
     </row>
     <row r="188" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B188" s="21"/>
-      <c r="C188" s="71"/>
-      <c r="D188" s="70"/>
+      <c r="C188" s="56"/>
+      <c r="D188" s="55"/>
       <c r="E188" s="28"/>
       <c r="F188" s="28"/>
       <c r="G188" s="28"/>
@@ -30911,8 +29414,8 @@
     </row>
     <row r="189" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B189" s="21"/>
-      <c r="C189" s="71"/>
-      <c r="D189" s="70"/>
+      <c r="C189" s="56"/>
+      <c r="D189" s="55"/>
       <c r="E189" s="28"/>
       <c r="F189" s="28"/>
       <c r="G189" s="28"/>
@@ -30954,8 +29457,8 @@
     </row>
     <row r="190" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B190" s="21"/>
-      <c r="C190" s="71"/>
-      <c r="D190" s="70"/>
+      <c r="C190" s="56"/>
+      <c r="D190" s="55"/>
       <c r="E190" s="28"/>
       <c r="F190" s="28"/>
       <c r="G190" s="28"/>
@@ -30997,8 +29500,8 @@
     </row>
     <row r="191" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B191" s="21"/>
-      <c r="C191" s="71"/>
-      <c r="D191" s="70"/>
+      <c r="C191" s="56"/>
+      <c r="D191" s="55"/>
       <c r="E191" s="28"/>
       <c r="F191" s="28"/>
       <c r="G191" s="28"/>
@@ -31040,8 +29543,8 @@
     </row>
     <row r="192" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B192" s="21"/>
-      <c r="C192" s="71"/>
-      <c r="D192" s="70"/>
+      <c r="C192" s="56"/>
+      <c r="D192" s="55"/>
       <c r="E192" s="28"/>
       <c r="F192" s="28"/>
       <c r="G192" s="28"/>
@@ -31083,8 +29586,8 @@
     </row>
     <row r="193" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B193" s="21"/>
-      <c r="C193" s="71"/>
-      <c r="D193" s="70"/>
+      <c r="C193" s="56"/>
+      <c r="D193" s="55"/>
       <c r="E193" s="28"/>
       <c r="F193" s="28"/>
       <c r="G193" s="28"/>
@@ -31126,8 +29629,8 @@
     </row>
     <row r="194" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B194" s="21"/>
-      <c r="C194" s="71"/>
-      <c r="D194" s="70"/>
+      <c r="C194" s="56"/>
+      <c r="D194" s="55"/>
       <c r="E194" s="28"/>
       <c r="F194" s="28"/>
       <c r="G194" s="28"/>
@@ -31169,8 +29672,8 @@
     </row>
     <row r="195" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B195" s="21"/>
-      <c r="C195" s="71"/>
-      <c r="D195" s="70"/>
+      <c r="C195" s="56"/>
+      <c r="D195" s="55"/>
       <c r="E195" s="28"/>
       <c r="F195" s="28"/>
       <c r="G195" s="28"/>
@@ -31212,8 +29715,8 @@
     </row>
     <row r="196" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B196" s="21"/>
-      <c r="C196" s="71"/>
-      <c r="D196" s="70"/>
+      <c r="C196" s="56"/>
+      <c r="D196" s="55"/>
       <c r="E196" s="28"/>
       <c r="F196" s="28"/>
       <c r="G196" s="28"/>
@@ -31255,8 +29758,8 @@
     </row>
     <row r="197" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B197" s="21"/>
-      <c r="C197" s="71"/>
-      <c r="D197" s="70"/>
+      <c r="C197" s="56"/>
+      <c r="D197" s="55"/>
       <c r="E197" s="28"/>
       <c r="F197" s="28"/>
       <c r="G197" s="28"/>
@@ -31298,8 +29801,8 @@
     </row>
     <row r="198" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B198" s="21"/>
-      <c r="C198" s="71"/>
-      <c r="D198" s="70"/>
+      <c r="C198" s="56"/>
+      <c r="D198" s="55"/>
       <c r="E198" s="28"/>
       <c r="F198" s="28"/>
       <c r="G198" s="28"/>
@@ -31341,8 +29844,8 @@
     </row>
     <row r="199" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B199" s="21"/>
-      <c r="C199" s="71"/>
-      <c r="D199" s="70"/>
+      <c r="C199" s="56"/>
+      <c r="D199" s="55"/>
       <c r="E199" s="28"/>
       <c r="F199" s="28"/>
       <c r="G199" s="28"/>
@@ -31384,8 +29887,8 @@
     </row>
     <row r="200" spans="2:42" x14ac:dyDescent="0.45">
       <c r="B200" s="21"/>
-      <c r="C200" s="71"/>
-      <c r="D200" s="70"/>
+      <c r="C200" s="56"/>
+      <c r="D200" s="55"/>
       <c r="E200" s="28"/>
       <c r="F200" s="28"/>
       <c r="G200" s="28"/>
@@ -31429,24 +29932,24 @@
   <mergeCells count="1">
     <mergeCell ref="M11:S11"/>
   </mergeCells>
-  <conditionalFormatting sqref="C16:C121 C14 D13:AP18 D20:AP200 D19:G19 I19:AP19">
-    <cfRule type="cellIs" dxfId="3" priority="25" operator="equal">
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="35" priority="1">
+      <formula>OR(C14="SELL",C14="SHORT")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C121 D13:AP200 C14">
+    <cfRule type="cellIs" dxfId="34" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C121">
-    <cfRule type="expression" dxfId="2" priority="23">
+    <cfRule type="expression" dxfId="33" priority="23">
       <formula>OR(C16="SELL",C16="SHORT")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D200">
-    <cfRule type="expression" dxfId="1" priority="15">
+    <cfRule type="expression" dxfId="32" priority="15">
       <formula>OR(D13="SELL",D13="SHORT")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>OR(C14="SELL",C14="SHORT")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
